--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Desktop\システム開発 (2)\03_DB設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01D986-AD96-4E92-8872-CC699CABDDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA379B6B-AA3E-4539-BFCB-5500197E4D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="171">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -191,55 +191,14 @@
     <t>ユーザー</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>マスター</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>チャットルーム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>room</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>チャットメッセージ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>イベント</t>
   </si>
   <si>
-    <t>提示版FuJiのチャットメッセージの情報</t>
-    <rPh sb="0" eb="3">
-      <t>テイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>チャットメンバー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>イベント</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>提示版FuJiのチャットメンバーの情報</t>
-    <rPh sb="0" eb="3">
-      <t>テイジ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -667,10 +626,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>のチャットルームの情報</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>VARCHAR(30)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1007,6 +962,44 @@
     <rPh sb="27" eb="29">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康アプリにアクセスするユーザーの運動量</t>
+    <rPh sb="17" eb="19">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康アプリにアクセスするユーザー接種カロリー</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッシュ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康アプリ登録されるレシピ</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中嶋</t>
+  </si>
+  <si>
+    <t>概念データモデル図</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID(user_id)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2607,6 +2600,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2624,24 +2635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2831,18 +2824,6 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
               <a:t>＊ユーザーネーム</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
-              <a:t>  </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊ユーザーカラー</a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
           </a:p>
           <a:p>
@@ -2953,7 +2934,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>チャットルーム</a:t>
+              <a:t>健康</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3007,7 +2988,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>＊ルーム</a:t>
+              <a:t>＊健康日付</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
@@ -3035,7 +3016,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>＊メッセージ</a:t>
+              <a:t>＊ユーザー</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
@@ -3063,7 +3044,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊ルームネーム</a:t>
+              <a:t>    目標カロリー</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
           </a:p>
@@ -3083,7 +3064,23 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>詳細</a:t>
+              <a:t>総合カロリー</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t>接種カロリー</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
           </a:p>
@@ -3176,7 +3173,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>チャットメッセージ</a:t>
+              <a:t>運動</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3230,7 +3227,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊メッセージ</a:t>
+              <a:t>＊運動日付</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
@@ -3276,7 +3273,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊チャット本文</a:t>
+              <a:t>　 運動目標</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
           </a:p>
@@ -3288,7 +3285,15 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊送信日時</a:t>
+              <a:t> 　総合運動量</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t>  　 運動量</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
           </a:p>
@@ -3315,8 +3320,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1722671</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>10281</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76506</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3332,7 +3337,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6227591" y="8966505"/>
-          <a:ext cx="2166405" cy="1907631"/>
+          <a:ext cx="2166405" cy="3350965"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -3385,7 +3390,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>チャットジャンル</a:t>
+              <a:t>レシピ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3439,7 +3444,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>＊ジャンル</a:t>
+              <a:t>＊レシピ</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
@@ -3467,15 +3472,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊ルーム</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>（</a:t>
+              <a:t>＊写真（</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
@@ -3495,69 +3492,69 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t>＊ジャンル名</a:t>
+              <a:t>＊レシピ名</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t>   　名前の情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t>＊材料</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> 　量</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t>　 手順</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> 　情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1905919</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>397832</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>98564</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF1E5A9-E75C-C200-1C58-92330863957E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="32" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5930136" y="10891542"/>
-          <a:ext cx="832997" cy="9673"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4288,7 +4285,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="140" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="V3" s="142"/>
       <c r="W3" s="159">
@@ -4363,7 +4360,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="Y5" s="35" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -4396,7 +4393,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="Y6" s="35" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -4408,13 +4405,13 @@
     <row r="7" spans="1:176" ht="20.25" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="36" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="144" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G7" s="145"/>
       <c r="H7" s="145"/>
@@ -4445,13 +4442,13 @@
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="147" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C8" s="148"/>
       <c r="D8" s="148"/>
       <c r="E8" s="149"/>
       <c r="F8" s="153" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G8" s="154"/>
       <c r="H8" s="154"/>
@@ -4470,17 +4467,17 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="143" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="X8" s="143"/>
       <c r="Y8" s="143"/>
       <c r="Z8" s="143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="143"/>
       <c r="AB8" s="143"/>
       <c r="AC8" s="143" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="143"/>
       <c r="AE8" s="143"/>
@@ -4516,7 +4513,7 @@
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="160" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AD9" s="161"/>
       <c r="AE9" s="162"/>
@@ -4713,7 +4710,7 @@
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="139" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="139"/>
       <c r="D16" s="139"/>
@@ -4883,7 +4880,7 @@
     <row r="21" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -4957,13 +4954,13 @@
       <c r="D23" s="141"/>
       <c r="E23" s="142"/>
       <c r="F23" s="140" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G23" s="141"/>
       <c r="H23" s="141"/>
       <c r="I23" s="142"/>
       <c r="J23" s="140" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K23" s="141"/>
       <c r="L23" s="141"/>
@@ -4984,7 +4981,7 @@
       <c r="AA23" s="141"/>
       <c r="AB23" s="142"/>
       <c r="AC23" s="140" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AD23" s="141"/>
       <c r="AE23" s="142"/>
@@ -5005,7 +5002,7 @@
       <c r="H24" s="137"/>
       <c r="I24" s="138"/>
       <c r="J24" s="133" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K24" s="134"/>
       <c r="L24" s="134"/>
@@ -5026,7 +5023,7 @@
       <c r="AA24" s="134"/>
       <c r="AB24" s="135"/>
       <c r="AC24" s="133" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AD24" s="134"/>
       <c r="AE24" s="135"/>
@@ -5047,7 +5044,7 @@
       <c r="H25" s="137"/>
       <c r="I25" s="138"/>
       <c r="J25" s="133" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K25" s="134"/>
       <c r="L25" s="134"/>
@@ -5068,7 +5065,7 @@
       <c r="AA25" s="134"/>
       <c r="AB25" s="135"/>
       <c r="AC25" s="133" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AD25" s="134"/>
       <c r="AE25" s="135"/>
@@ -5076,15 +5073,21 @@
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="133"/>
+      <c r="B26" s="133">
+        <v>1.3</v>
+      </c>
       <c r="C26" s="134"/>
       <c r="D26" s="134"/>
       <c r="E26" s="135"/>
-      <c r="F26" s="136"/>
+      <c r="F26" s="136">
+        <v>45198</v>
+      </c>
       <c r="G26" s="137"/>
       <c r="H26" s="137"/>
       <c r="I26" s="138"/>
-      <c r="J26" s="133"/>
+      <c r="J26" s="133" t="s">
+        <v>169</v>
+      </c>
       <c r="K26" s="134"/>
       <c r="L26" s="134"/>
       <c r="M26" s="134"/>
@@ -5103,7 +5106,9 @@
       <c r="Z26" s="134"/>
       <c r="AA26" s="134"/>
       <c r="AB26" s="135"/>
-      <c r="AC26" s="133"/>
+      <c r="AC26" s="133" t="s">
+        <v>91</v>
+      </c>
       <c r="AD26" s="134"/>
       <c r="AE26" s="135"/>
       <c r="AF26" s="12"/>
@@ -5479,13 +5484,15 @@
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="34" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="173" t="s">
@@ -5499,7 +5506,9 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="106">
+        <v>45192</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="173" t="s">
@@ -5507,14 +5516,14 @@
       </c>
       <c r="B3" s="174"/>
       <c r="C3" s="31" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="34">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
@@ -5537,7 +5546,7 @@
       </c>
       <c r="B5" s="174"/>
       <c r="C5" s="31" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33" t="s">
@@ -5589,13 +5598,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="169" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F9" s="170"/>
     </row>
@@ -5604,16 +5613,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" s="169" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F10" s="170"/>
     </row>
@@ -5622,16 +5631,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="169" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="F11" s="170"/>
     </row>
@@ -5640,16 +5649,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="F12" s="170"/>
     </row>
@@ -5693,7 +5702,7 @@
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5974,7 +5983,9 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5992,14 +6003,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -6021,7 +6032,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -6036,7 +6047,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="177" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3" s="178"/>
       <c r="E3" s="178"/>
@@ -6060,7 +6071,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="204" t="s">
@@ -6078,7 +6089,7 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="204" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D6" s="205"/>
       <c r="E6" s="205"/>
@@ -6088,11 +6099,11 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="204" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D7" s="205"/>
       <c r="E7" s="205"/>
@@ -6102,7 +6113,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -6114,26 +6125,26 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="180" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
@@ -6141,21 +6152,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6163,17 +6174,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D11" s="176"/>
       <c r="E11" s="66" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G11" s="67"/>
       <c r="H11" s="68"/>
@@ -6183,17 +6194,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D12" s="176"/>
       <c r="E12" s="66" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="73"/>
@@ -6203,17 +6214,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D13" s="176"/>
       <c r="E13" s="66" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13" s="72"/>
       <c r="H13" s="73"/>
@@ -6380,7 +6391,7 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="81"/>
@@ -6392,22 +6403,22 @@
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B31" s="185" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C31" s="201"/>
       <c r="D31" s="83" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E31" s="84"/>
       <c r="F31" s="85"/>
       <c r="G31" s="86" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
@@ -6472,7 +6483,7 @@
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B38" s="55"/>
       <c r="C38" s="81"/>
@@ -6484,22 +6495,22 @@
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C39" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D39" s="200"/>
       <c r="E39" s="201"/>
       <c r="F39" s="185" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G39" s="186"/>
       <c r="H39" s="87" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -6564,7 +6575,7 @@
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="81"/>
@@ -6576,22 +6587,22 @@
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B47" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C47" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D47" s="200"/>
       <c r="E47" s="201"/>
       <c r="F47" s="180" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G47" s="184"/>
       <c r="H47" s="58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -6599,19 +6610,19 @@
         <v>1</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C48" s="193" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D48" s="202"/>
       <c r="E48" s="194"/>
       <c r="F48" s="193" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G48" s="194"/>
       <c r="H48" s="120" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
@@ -6752,14 +6763,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -6781,7 +6792,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -6796,7 +6807,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="177" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3" s="178"/>
       <c r="E3" s="178"/>
@@ -6820,11 +6831,11 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="204" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D5" s="205"/>
       <c r="E5" s="205"/>
@@ -6838,7 +6849,7 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="204" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D6" s="205"/>
       <c r="E6" s="205"/>
@@ -6848,11 +6859,11 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -6862,7 +6873,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -6874,26 +6885,26 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="180" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
@@ -6901,21 +6912,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6923,14 +6934,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -6941,14 +6952,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -6959,14 +6970,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -7114,7 +7125,7 @@
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="81"/>
@@ -7126,22 +7137,22 @@
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" s="185" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E29" s="84"/>
       <c r="F29" s="85"/>
       <c r="G29" s="86" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
@@ -7206,7 +7217,7 @@
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="81"/>
@@ -7218,22 +7229,22 @@
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C37" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D37" s="200"/>
       <c r="E37" s="201"/>
       <c r="F37" s="185" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
@@ -7241,60 +7252,44 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C38" s="193" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D38" s="202"/>
       <c r="E38" s="194"/>
       <c r="F38" s="193" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121">
         <v>2</v>
       </c>
-      <c r="B39" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="195" t="s">
-        <v>84</v>
-      </c>
+      <c r="B39" s="125"/>
+      <c r="C39" s="195"/>
       <c r="D39" s="203"/>
       <c r="E39" s="196"/>
-      <c r="F39" s="195" t="s">
-        <v>85</v>
-      </c>
+      <c r="F39" s="195"/>
       <c r="G39" s="196"/>
-      <c r="H39" s="123" t="s">
-        <v>84</v>
-      </c>
+      <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121">
         <v>3</v>
       </c>
-      <c r="B40" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="195" t="s">
-        <v>86</v>
-      </c>
+      <c r="B40" s="125"/>
+      <c r="C40" s="195"/>
       <c r="D40" s="203"/>
       <c r="E40" s="196"/>
-      <c r="F40" s="195" t="s">
-        <v>87</v>
-      </c>
+      <c r="F40" s="195"/>
       <c r="G40" s="196"/>
-      <c r="H40" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
@@ -7328,7 +7323,7 @@
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="81"/>
@@ -7340,22 +7335,22 @@
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C45" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D45" s="200"/>
       <c r="E45" s="201"/>
       <c r="F45" s="180" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -7363,60 +7358,44 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C46" s="193" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D46" s="202"/>
       <c r="E46" s="194"/>
       <c r="F46" s="193" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121">
         <v>2</v>
       </c>
-      <c r="B47" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>82</v>
-      </c>
+      <c r="B47" s="125"/>
+      <c r="C47" s="195"/>
       <c r="D47" s="203"/>
       <c r="E47" s="196"/>
-      <c r="F47" s="195" t="s">
-        <v>79</v>
-      </c>
+      <c r="F47" s="195"/>
       <c r="G47" s="196"/>
-      <c r="H47" s="123" t="s">
-        <v>82</v>
-      </c>
+      <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121">
         <v>3</v>
       </c>
-      <c r="B48" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="195" t="s">
-        <v>86</v>
-      </c>
+      <c r="B48" s="125"/>
+      <c r="C48" s="195"/>
       <c r="D48" s="203"/>
       <c r="E48" s="196"/>
-      <c r="F48" s="195" t="s">
-        <v>87</v>
-      </c>
+      <c r="F48" s="195"/>
       <c r="G48" s="196"/>
-      <c r="H48" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
@@ -7529,14 +7508,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -7558,7 +7537,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -7573,7 +7552,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="177" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3" s="178"/>
       <c r="E3" s="178"/>
@@ -7597,11 +7576,11 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="204" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D5" s="205"/>
       <c r="E5" s="205"/>
@@ -7615,7 +7594,7 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="204" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D6" s="205"/>
       <c r="E6" s="205"/>
@@ -7625,11 +7604,11 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -7639,7 +7618,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -7651,26 +7630,26 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="180" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
@@ -7678,21 +7657,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7700,14 +7679,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -7718,14 +7697,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -7736,14 +7715,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -7891,7 +7870,7 @@
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="81"/>
@@ -7903,22 +7882,22 @@
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" s="185" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E29" s="84"/>
       <c r="F29" s="85"/>
       <c r="G29" s="86" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
@@ -7983,7 +7962,7 @@
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="81"/>
@@ -7995,22 +7974,22 @@
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C37" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D37" s="200"/>
       <c r="E37" s="201"/>
       <c r="F37" s="185" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
@@ -8018,60 +7997,44 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C38" s="193" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D38" s="202"/>
       <c r="E38" s="194"/>
       <c r="F38" s="193" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121">
         <v>2</v>
       </c>
-      <c r="B39" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="195" t="s">
-        <v>84</v>
-      </c>
+      <c r="B39" s="125"/>
+      <c r="C39" s="195"/>
       <c r="D39" s="203"/>
       <c r="E39" s="196"/>
-      <c r="F39" s="195" t="s">
-        <v>85</v>
-      </c>
+      <c r="F39" s="195"/>
       <c r="G39" s="196"/>
-      <c r="H39" s="123" t="s">
-        <v>84</v>
-      </c>
+      <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121">
         <v>3</v>
       </c>
-      <c r="B40" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="195" t="s">
-        <v>86</v>
-      </c>
+      <c r="B40" s="125"/>
+      <c r="C40" s="195"/>
       <c r="D40" s="203"/>
       <c r="E40" s="196"/>
-      <c r="F40" s="195" t="s">
-        <v>87</v>
-      </c>
+      <c r="F40" s="195"/>
       <c r="G40" s="196"/>
-      <c r="H40" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
@@ -8105,7 +8068,7 @@
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="81"/>
@@ -8117,22 +8080,22 @@
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C45" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D45" s="200"/>
       <c r="E45" s="201"/>
       <c r="F45" s="180" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -8140,60 +8103,44 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C46" s="193" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D46" s="202"/>
       <c r="E46" s="194"/>
       <c r="F46" s="193" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121">
         <v>2</v>
       </c>
-      <c r="B47" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>82</v>
-      </c>
+      <c r="B47" s="125"/>
+      <c r="C47" s="195"/>
       <c r="D47" s="203"/>
       <c r="E47" s="196"/>
-      <c r="F47" s="195" t="s">
-        <v>79</v>
-      </c>
+      <c r="F47" s="195"/>
       <c r="G47" s="196"/>
-      <c r="H47" s="123" t="s">
-        <v>82</v>
-      </c>
+      <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121">
         <v>3</v>
       </c>
-      <c r="B48" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="195" t="s">
-        <v>86</v>
-      </c>
+      <c r="B48" s="125"/>
+      <c r="C48" s="195"/>
       <c r="D48" s="203"/>
       <c r="E48" s="196"/>
-      <c r="F48" s="195" t="s">
-        <v>87</v>
-      </c>
+      <c r="F48" s="195"/>
       <c r="G48" s="196"/>
-      <c r="H48" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
@@ -8306,14 +8253,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -8346,7 +8293,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="177" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3" s="178"/>
       <c r="E3" s="178"/>
@@ -8370,11 +8317,11 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="204" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D5" s="205"/>
       <c r="E5" s="205"/>
@@ -8388,7 +8335,7 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="204" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D6" s="205"/>
       <c r="E6" s="205"/>
@@ -8398,11 +8345,11 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -8412,7 +8359,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -8424,26 +8371,26 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="180" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
@@ -8451,21 +8398,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -8473,16 +8420,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="71"/>
+        <v>143</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
     </row>
@@ -8491,16 +8440,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="71"/>
+        <v>144</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="72"/>
       <c r="H12" s="73"/>
     </row>
@@ -8509,14 +8460,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -8527,16 +8478,18 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D14" s="176"/>
       <c r="E14" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="71"/>
+        <v>144</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" s="72"/>
       <c r="H14" s="73"/>
     </row>
@@ -8545,14 +8498,14 @@
         <v>6</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="176"/>
       <c r="E15" s="71" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -8563,14 +8516,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C16" s="175" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D16" s="176"/>
       <c r="E16" s="71" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -8581,14 +8534,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C17" s="175" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D17" s="176"/>
       <c r="E17" s="71" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -8696,7 +8649,7 @@
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="81"/>
@@ -8708,22 +8661,22 @@
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" s="185" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E29" s="84"/>
       <c r="F29" s="85"/>
       <c r="G29" s="86" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
@@ -8788,7 +8741,7 @@
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="81"/>
@@ -8800,22 +8753,22 @@
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C37" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D37" s="200"/>
       <c r="E37" s="201"/>
       <c r="F37" s="185" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
@@ -8823,60 +8776,44 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C38" s="193" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D38" s="202"/>
       <c r="E38" s="194"/>
       <c r="F38" s="193" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121">
         <v>2</v>
       </c>
-      <c r="B39" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="195" t="s">
-        <v>84</v>
-      </c>
+      <c r="B39" s="125"/>
+      <c r="C39" s="195"/>
       <c r="D39" s="203"/>
       <c r="E39" s="196"/>
-      <c r="F39" s="195" t="s">
-        <v>85</v>
-      </c>
+      <c r="F39" s="195"/>
       <c r="G39" s="196"/>
-      <c r="H39" s="123" t="s">
-        <v>84</v>
-      </c>
+      <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121">
         <v>3</v>
       </c>
-      <c r="B40" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="195" t="s">
-        <v>86</v>
-      </c>
+      <c r="B40" s="125"/>
+      <c r="C40" s="195"/>
       <c r="D40" s="203"/>
       <c r="E40" s="196"/>
-      <c r="F40" s="195" t="s">
-        <v>87</v>
-      </c>
+      <c r="F40" s="195"/>
       <c r="G40" s="196"/>
-      <c r="H40" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
@@ -8910,7 +8847,7 @@
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="81"/>
@@ -8922,22 +8859,22 @@
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C45" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D45" s="200"/>
       <c r="E45" s="201"/>
       <c r="F45" s="180" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -8945,60 +8882,44 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C46" s="193" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="D46" s="202"/>
       <c r="E46" s="194"/>
       <c r="F46" s="193" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121">
         <v>2</v>
       </c>
-      <c r="B47" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>82</v>
-      </c>
+      <c r="B47" s="125"/>
+      <c r="C47" s="195"/>
       <c r="D47" s="203"/>
       <c r="E47" s="196"/>
-      <c r="F47" s="195" t="s">
-        <v>79</v>
-      </c>
+      <c r="F47" s="195"/>
       <c r="G47" s="196"/>
-      <c r="H47" s="123" t="s">
-        <v>82</v>
-      </c>
+      <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121">
         <v>3</v>
       </c>
-      <c r="B48" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="195" t="s">
-        <v>86</v>
-      </c>
+      <c r="B48" s="125"/>
+      <c r="C48" s="195"/>
       <c r="D48" s="203"/>
       <c r="E48" s="196"/>
-      <c r="F48" s="195" t="s">
-        <v>87</v>
-      </c>
+      <c r="F48" s="195"/>
       <c r="G48" s="196"/>
-      <c r="H48" s="123" t="s">
-        <v>86</v>
-      </c>
+      <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
@@ -9104,7 +9025,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14">
       <c r="A1" s="108" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -9124,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -9135,16 +9056,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J2" s="113"/>
       <c r="K2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="224">
+      <c r="L2" s="218">
         <v>45197</v>
       </c>
-      <c r="M2" s="225"/>
+      <c r="M2" s="219"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="115" t="s">
@@ -9166,15 +9087,15 @@
       <c r="K3" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="219"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="113"/>
@@ -9187,10 +9108,10 @@
       <c r="K4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="226">
+      <c r="L4" s="220">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M4" s="225"/>
+      <c r="M4" s="219"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="19"/>
@@ -9208,10 +9129,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="116" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
@@ -9227,10 +9148,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="118" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C7" s="113"/>
       <c r="D7" s="113"/>
@@ -9252,12 +9173,12 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="F9" s="99"/>
-      <c r="G9" s="227" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="229"/>
+      <c r="G9" s="221" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="222"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="223"/>
       <c r="K9" s="129"/>
       <c r="M9" s="99"/>
     </row>
@@ -9272,13 +9193,13 @@
         <v>18</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I10" s="126" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K10" s="131"/>
       <c r="L10" s="129"/>
@@ -9286,17 +9207,17 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="98"/>
-      <c r="B11" s="218" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="221" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
+      <c r="B11" s="224" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="229"/>
       <c r="G11" s="102" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H11" s="102"/>
       <c r="I11" s="102"/>
@@ -9307,15 +9228,15 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="98"/>
-      <c r="B12" s="219"/>
-      <c r="C12" s="221" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="223"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="227" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="229"/>
       <c r="G12" s="102" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
@@ -9326,15 +9247,15 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="98"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="221" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="223"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="227" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="228"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="229"/>
       <c r="G13" s="102" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
@@ -9345,15 +9266,15 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="98"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="221" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="222"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="223"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="227" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="229"/>
       <c r="G14" s="102" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -9364,16 +9285,16 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="98"/>
-      <c r="B15" s="219"/>
-      <c r="C15" s="221" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="222"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="223"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="227" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="229"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="127"/>
@@ -9383,17 +9304,17 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="98"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="221" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="223"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="227" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="228"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="229"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J16" s="127"/>
       <c r="K16" s="131"/>
@@ -9402,18 +9323,18 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="221" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="223"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="229"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
       <c r="J17" s="127" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K17" s="131"/>
       <c r="L17" s="129"/>
@@ -9484,7 +9405,7 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
@@ -9522,7 +9443,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="177" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D3" s="178"/>
       <c r="E3" s="178"/>
@@ -9546,7 +9467,7 @@
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="204"/>
@@ -9570,7 +9491,7 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215"/>
@@ -9582,7 +9503,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -9594,26 +9515,26 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="180" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1">
@@ -9621,21 +9542,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -9810,7 +9731,7 @@
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="81"/>
@@ -9822,22 +9743,22 @@
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" s="185" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E29" s="84"/>
       <c r="F29" s="85"/>
       <c r="G29" s="86" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
@@ -9902,7 +9823,7 @@
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="81"/>
@@ -9914,22 +9835,22 @@
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B37" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C37" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D37" s="200"/>
       <c r="E37" s="201"/>
       <c r="F37" s="185" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
@@ -9937,19 +9858,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C38" s="193" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D38" s="202"/>
       <c r="E38" s="194"/>
       <c r="F38" s="193" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -9957,19 +9878,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="195" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" s="195" t="s">
-        <v>84</v>
       </c>
       <c r="D39" s="203"/>
       <c r="E39" s="196"/>
       <c r="F39" s="195" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G39" s="196"/>
       <c r="H39" s="123" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -9977,19 +9898,19 @@
         <v>3</v>
       </c>
       <c r="B40" s="125" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C40" s="195" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D40" s="203"/>
       <c r="E40" s="196"/>
       <c r="F40" s="195" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" s="196"/>
       <c r="H40" s="123" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
@@ -10024,7 +9945,7 @@
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="55" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="81"/>
@@ -10036,22 +9957,22 @@
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C45" s="185" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D45" s="200"/>
       <c r="E45" s="201"/>
       <c r="F45" s="180" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
@@ -10059,19 +9980,19 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C46" s="193" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D46" s="202"/>
       <c r="E46" s="194"/>
       <c r="F46" s="193" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10079,19 +10000,19 @@
         <v>2</v>
       </c>
       <c r="B47" s="125" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D47" s="203"/>
       <c r="E47" s="196"/>
       <c r="F47" s="195" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G47" s="196"/>
       <c r="H47" s="123" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -10099,19 +10020,19 @@
         <v>3</v>
       </c>
       <c r="B48" s="125" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C48" s="195" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D48" s="203"/>
       <c r="E48" s="196"/>
       <c r="F48" s="195" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" s="196"/>
       <c r="H48" s="123" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">

--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA379B6B-AA3E-4539-BFCB-5500197E4D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1168F6A-2E0A-4A40-BC92-7AFEF06782BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -932,10 +932,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C,R,(D)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー、運動、栄養の作成</t>
     <rPh sb="5" eb="7">
       <t>ウンドウ</t>
@@ -1000,6 +996,10 @@
   </si>
   <si>
     <t>ユーザID(user_id)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C,R</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2345,15 +2345,105 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2363,95 +2453,11 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2465,10 +2471,67 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2477,6 +2540,39 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2486,9 +2582,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2496,99 +2589,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3852,7 +3852,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -4284,21 +4284,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="140" t="s">
+      <c r="U3" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="142"/>
-      <c r="W3" s="159">
+      <c r="V3" s="150"/>
+      <c r="W3" s="151">
         <v>45191</v>
       </c>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="135"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="153"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4410,20 +4410,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="146"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="136"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4441,66 +4441,66 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="153" t="s">
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="145"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="143" t="s">
+      <c r="W8" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143" t="s">
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143" t="s">
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="148"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -4512,11 +4512,11 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="160" t="s">
+      <c r="AC9" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="162"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4546,9 +4546,9 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="15"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="165"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="159"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4578,9 +4578,9 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="15"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="165"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="158"/>
+      <c r="AE11" s="159"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4612,9 +4612,9 @@
       <c r="Z12" s="46"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="48"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="168"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="162"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4709,106 +4709,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="163"/>
+      <c r="X16" s="163"/>
+      <c r="Y16" s="163"/>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="163"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="163"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="163"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="163"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="163"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="139"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="163"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4947,408 +4947,408 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="140" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="140" t="s">
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="140" t="s">
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="142"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="150"/>
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="133">
+      <c r="B24" s="165">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136">
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="166">
         <v>45191</v>
       </c>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="133" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="134"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="133" t="s">
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="135"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="153"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="133">
+      <c r="B25" s="165">
         <v>1.2</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="136">
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="166">
         <v>45197</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="134"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="133" t="s">
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="165" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="135"/>
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="153"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="133">
+      <c r="B26" s="165">
         <v>1.3</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="136">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="166">
         <v>45198</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="134"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="133" t="s">
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="135"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="153"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="133"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="135"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="152"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="165"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="153"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="133"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="135"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="152"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="153"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="133"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="135"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="152"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="153"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="135"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="153"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="133"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="135"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="153"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="133"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="135"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="153"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="133"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="135"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="165"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="153"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5386,6 +5386,51 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5395,51 +5440,6 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5479,10 +5479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
+      <c r="B1" s="170"/>
       <c r="C1" s="31" t="s">
         <v>89</v>
       </c>
@@ -5491,14 +5491,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
@@ -5511,10 +5511,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="174"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="31" t="s">
         <v>90</v>
       </c>
@@ -5527,10 +5527,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="174"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
@@ -5541,10 +5541,10 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="174"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="31" t="s">
         <v>101</v>
       </c>
@@ -5585,10 +5585,10 @@
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="172"/>
+      <c r="F8" s="174"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1">
       <c r="A9" s="8">
@@ -5603,10 +5603,10 @@
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="169" t="s">
+      <c r="E9" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="170"/>
+      <c r="F9" s="172"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="8">
@@ -5621,10 +5621,10 @@
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="169" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="170"/>
+      <c r="E10" s="171" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="172"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="8">
@@ -5639,10 +5639,10 @@
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="169" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="170"/>
+      <c r="E11" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="8">
@@ -5657,10 +5657,10 @@
       <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="169" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="170"/>
+      <c r="E12" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="172"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="8">
@@ -5669,8 +5669,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="8">
@@ -5679,8 +5679,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
@@ -5689,16 +5689,16 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="172"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="172"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -5949,11 +5949,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5963,6 +5958,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6046,12 +6046,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6074,42 +6074,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="204" t="s">
+      <c r="C7" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="206"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -6130,10 +6130,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6154,10 +6154,10 @@
       <c r="B10" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>102</v>
       </c>
@@ -6176,10 +6176,10 @@
       <c r="B11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="66" t="s">
         <v>50</v>
       </c>
@@ -6196,10 +6196,10 @@
       <c r="B12" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="66" t="s">
         <v>105</v>
       </c>
@@ -6216,10 +6216,10 @@
       <c r="B13" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="66" t="s">
         <v>45</v>
       </c>
@@ -6232,8 +6232,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6242,8 +6242,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6252,8 +6252,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -6262,8 +6262,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -6272,8 +6272,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -6282,8 +6282,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -6292,8 +6292,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -6302,8 +6302,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -6312,8 +6312,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -6322,8 +6322,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -6332,8 +6332,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -6342,8 +6342,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -6352,8 +6352,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -6362,8 +6362,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -6372,8 +6372,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="199"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="183"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -6405,10 +6405,10 @@
       <c r="A31" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="201"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="83" t="s">
         <v>57</v>
       </c>
@@ -6423,51 +6423,51 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="59"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="190"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="180"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="190"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="74"/>
-      <c r="B36" s="211"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="199"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="183"/>
       <c r="G36" s="77"/>
       <c r="H36" s="78"/>
     </row>
@@ -6500,15 +6500,15 @@
       <c r="B39" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="185" t="s">
+      <c r="C39" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="200"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="185" t="s">
+      <c r="D39" s="187"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="186"/>
+      <c r="G39" s="208"/>
       <c r="H39" s="87" t="s">
         <v>62</v>
       </c>
@@ -6516,51 +6516,51 @@
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="188"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="90"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="91"/>
       <c r="B41" s="92"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="190"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="180"/>
       <c r="H41" s="93"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="190"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="180"/>
       <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="190"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="94"/>
       <c r="B44" s="95"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="199"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="199"/>
       <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -6592,15 +6592,15 @@
       <c r="B47" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="185" t="s">
+      <c r="C47" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="200"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="180" t="s">
+      <c r="D47" s="187"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="184"/>
+      <c r="G47" s="207"/>
       <c r="H47" s="58" t="s">
         <v>65</v>
       </c>
@@ -6612,15 +6612,15 @@
       <c r="B48" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="193" t="s">
+      <c r="C48" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="202"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="193" t="s">
+      <c r="D48" s="204"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="194"/>
+      <c r="G48" s="201"/>
       <c r="H48" s="120" t="s">
         <v>69</v>
       </c>
@@ -6628,61 +6628,72 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="121"/>
       <c r="B50" s="122"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="196"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="203"/>
       <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="121"/>
       <c r="B51" s="122"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="196"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="94"/>
       <c r="B52" s="95"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="199"/>
       <c r="H52" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -6699,33 +6710,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6806,12 +6806,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6834,28 +6834,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -6890,10 +6890,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6914,10 +6914,10 @@
       <c r="B10" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>112</v>
       </c>
@@ -6936,10 +6936,10 @@
       <c r="B11" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71" t="s">
         <v>115</v>
       </c>
@@ -6954,10 +6954,10 @@
       <c r="B12" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71" t="s">
         <v>115</v>
       </c>
@@ -6972,10 +6972,10 @@
       <c r="B13" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71" t="s">
         <v>115</v>
       </c>
@@ -6986,8 +6986,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6996,8 +6996,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7006,8 +7006,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7016,8 +7016,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7026,8 +7026,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7036,8 +7036,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7046,8 +7046,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7056,8 +7056,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7066,8 +7066,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7076,8 +7076,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7086,8 +7086,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7096,8 +7096,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7106,8 +7106,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7139,10 +7139,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7157,51 +7157,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7234,15 +7234,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -7254,17 +7254,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="C38" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -7272,11 +7272,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="196"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -7284,31 +7284,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7340,15 +7340,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -7360,17 +7360,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="C46" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7378,11 +7378,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -7390,67 +7390,47 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -7464,18 +7444,38 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7551,12 +7551,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -7579,28 +7579,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -7635,10 +7635,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -7659,10 +7659,10 @@
       <c r="B10" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>112</v>
       </c>
@@ -7681,10 +7681,10 @@
       <c r="B11" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71" t="s">
         <v>122</v>
       </c>
@@ -7699,10 +7699,10 @@
       <c r="B12" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71" t="s">
         <v>122</v>
       </c>
@@ -7717,10 +7717,10 @@
       <c r="B13" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71" t="s">
         <v>122</v>
       </c>
@@ -7731,8 +7731,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -7741,8 +7741,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7751,8 +7751,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7761,8 +7761,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7771,8 +7771,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7781,8 +7781,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7791,8 +7791,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7801,8 +7801,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7811,8 +7811,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7821,8 +7821,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7831,8 +7831,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7841,8 +7841,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7851,8 +7851,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7884,10 +7884,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7902,51 +7902,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7979,15 +7979,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -7999,17 +7999,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="C38" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -8017,11 +8017,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="196"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8029,31 +8029,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8085,15 +8085,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8105,17 +8105,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="C46" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8123,11 +8123,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8135,67 +8135,47 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -8209,18 +8189,38 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8292,12 +8292,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -8320,28 +8320,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -8376,10 +8376,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -8400,10 +8400,10 @@
       <c r="B10" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>128</v>
       </c>
@@ -8422,10 +8422,10 @@
       <c r="B11" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71" t="s">
         <v>143</v>
       </c>
@@ -8442,10 +8442,10 @@
       <c r="B12" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71" t="s">
         <v>144</v>
       </c>
@@ -8462,10 +8462,10 @@
       <c r="B13" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71" t="s">
         <v>145</v>
       </c>
@@ -8480,10 +8480,10 @@
       <c r="B14" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="196" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="176"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71" t="s">
         <v>144</v>
       </c>
@@ -8500,10 +8500,10 @@
       <c r="B15" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="176"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71" t="s">
         <v>146</v>
       </c>
@@ -8518,10 +8518,10 @@
       <c r="B16" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="176"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71" t="s">
         <v>143</v>
       </c>
@@ -8536,10 +8536,10 @@
       <c r="B17" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="196" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71" t="s">
         <v>147</v>
       </c>
@@ -8550,8 +8550,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -8560,8 +8560,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -8570,8 +8570,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -8580,8 +8580,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -8590,8 +8590,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -8600,8 +8600,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -8610,8 +8610,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -8620,8 +8620,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -8630,8 +8630,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -8663,10 +8663,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -8681,51 +8681,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -8758,15 +8758,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -8778,17 +8778,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="C38" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -8796,11 +8796,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="196"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8808,31 +8808,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8864,15 +8864,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8884,17 +8884,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="C46" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8902,11 +8902,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8914,71 +8914,44 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -8991,15 +8964,42 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9014,7 +9014,9 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -9334,7 +9336,7 @@
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
       <c r="J17" s="127" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K17" s="131"/>
       <c r="L17" s="129"/>
@@ -9442,12 +9444,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -9470,24 +9472,24 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -9520,10 +9522,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -9544,10 +9546,10 @@
       <c r="B10" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>71</v>
       </c>
@@ -9562,8 +9564,8 @@
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -9572,8 +9574,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -9582,8 +9584,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -9592,8 +9594,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -9602,8 +9604,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -9612,8 +9614,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -9622,8 +9624,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -9632,8 +9634,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -9642,8 +9644,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -9652,8 +9654,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -9662,8 +9664,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -9672,8 +9674,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -9682,8 +9684,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -9692,8 +9694,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -9702,8 +9704,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -9712,8 +9714,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -9745,10 +9747,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -9763,51 +9765,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -9840,15 +9842,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -9860,15 +9862,15 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
+      <c r="C38" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
         <v>73</v>
       </c>
@@ -9880,15 +9882,15 @@
       <c r="B39" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="195" t="s">
+      <c r="C39" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195" t="s">
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="196"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123" t="s">
         <v>75</v>
       </c>
@@ -9900,15 +9902,15 @@
       <c r="B40" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="195" t="s">
+      <c r="C40" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195" t="s">
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123" t="s">
         <v>77</v>
       </c>
@@ -9916,21 +9918,21 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -9962,15 +9964,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -9982,15 +9984,15 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
         <v>73</v>
       </c>
@@ -10002,15 +10004,15 @@
       <c r="B47" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195" t="s">
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="196"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123" t="s">
         <v>73</v>
       </c>
@@ -10022,15 +10024,15 @@
       <c r="B48" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="195" t="s">
+      <c r="C48" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195" t="s">
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="196"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123" t="s">
         <v>77</v>
       </c>
@@ -10038,57 +10040,37 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -10102,18 +10084,38 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10122,25 +10124,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="442e66238a47e6a383c7bc2d6eb82e4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c6b4cf86c461cb44a843f6d22037aa6" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -10298,25 +10281,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C8621D-7C2F-4B15-827B-F8E79AB7AB0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10332,4 +10316,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\03_DB設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\healthApp\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1168F6A-2E0A-4A40-BC92-7AFEF06782BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A4400-612E-49BA-85AF-2362570F4FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -35,17 +35,6 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -527,11 +516,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>健康アプリ</t>
     <rPh sb="0" eb="2">
       <t>ケンコウ</t>
@@ -1000,6 +984,13 @@
   </si>
   <si>
     <t>C,R</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>諸熊</t>
+    <rPh sb="0" eb="2">
+      <t>モロクマ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2345,6 +2336,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2393,21 +2414,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2435,30 +2444,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2471,124 +2456,130 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3852,202 +3843,202 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="11" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
-    <col min="7" max="32" width="4.08984375" style="11" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="11" customWidth="1"/>
     <col min="33" max="36" width="4" style="11" customWidth="1"/>
     <col min="37" max="256" width="9" style="11"/>
-    <col min="257" max="288" width="4.08984375" style="11" customWidth="1"/>
+    <col min="257" max="288" width="4.125" style="11" customWidth="1"/>
     <col min="289" max="292" width="4" style="11" customWidth="1"/>
     <col min="293" max="512" width="9" style="11"/>
-    <col min="513" max="544" width="4.08984375" style="11" customWidth="1"/>
+    <col min="513" max="544" width="4.125" style="11" customWidth="1"/>
     <col min="545" max="548" width="4" style="11" customWidth="1"/>
     <col min="549" max="768" width="9" style="11"/>
-    <col min="769" max="800" width="4.08984375" style="11" customWidth="1"/>
+    <col min="769" max="800" width="4.125" style="11" customWidth="1"/>
     <col min="801" max="804" width="4" style="11" customWidth="1"/>
     <col min="805" max="1024" width="9" style="11"/>
-    <col min="1025" max="1056" width="4.08984375" style="11" customWidth="1"/>
+    <col min="1025" max="1056" width="4.125" style="11" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="11" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="11"/>
-    <col min="1281" max="1312" width="4.08984375" style="11" customWidth="1"/>
+    <col min="1281" max="1312" width="4.125" style="11" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="11" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="11"/>
-    <col min="1537" max="1568" width="4.08984375" style="11" customWidth="1"/>
+    <col min="1537" max="1568" width="4.125" style="11" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="11" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="11"/>
-    <col min="1793" max="1824" width="4.08984375" style="11" customWidth="1"/>
+    <col min="1793" max="1824" width="4.125" style="11" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="11" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="11"/>
-    <col min="2049" max="2080" width="4.08984375" style="11" customWidth="1"/>
+    <col min="2049" max="2080" width="4.125" style="11" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="11" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="11"/>
-    <col min="2305" max="2336" width="4.08984375" style="11" customWidth="1"/>
+    <col min="2305" max="2336" width="4.125" style="11" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="11" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="11"/>
-    <col min="2561" max="2592" width="4.08984375" style="11" customWidth="1"/>
+    <col min="2561" max="2592" width="4.125" style="11" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="11" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="11"/>
-    <col min="2817" max="2848" width="4.08984375" style="11" customWidth="1"/>
+    <col min="2817" max="2848" width="4.125" style="11" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="11" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="11"/>
-    <col min="3073" max="3104" width="4.08984375" style="11" customWidth="1"/>
+    <col min="3073" max="3104" width="4.125" style="11" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="11" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="11"/>
-    <col min="3329" max="3360" width="4.08984375" style="11" customWidth="1"/>
+    <col min="3329" max="3360" width="4.125" style="11" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="11" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="11"/>
-    <col min="3585" max="3616" width="4.08984375" style="11" customWidth="1"/>
+    <col min="3585" max="3616" width="4.125" style="11" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="11" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="11"/>
-    <col min="3841" max="3872" width="4.08984375" style="11" customWidth="1"/>
+    <col min="3841" max="3872" width="4.125" style="11" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="11" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="11"/>
-    <col min="4097" max="4128" width="4.08984375" style="11" customWidth="1"/>
+    <col min="4097" max="4128" width="4.125" style="11" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="11" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="11"/>
-    <col min="4353" max="4384" width="4.08984375" style="11" customWidth="1"/>
+    <col min="4353" max="4384" width="4.125" style="11" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="11" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="11"/>
-    <col min="4609" max="4640" width="4.08984375" style="11" customWidth="1"/>
+    <col min="4609" max="4640" width="4.125" style="11" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="11" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="11"/>
-    <col min="4865" max="4896" width="4.08984375" style="11" customWidth="1"/>
+    <col min="4865" max="4896" width="4.125" style="11" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="11" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="11"/>
-    <col min="5121" max="5152" width="4.08984375" style="11" customWidth="1"/>
+    <col min="5121" max="5152" width="4.125" style="11" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="11" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="11"/>
-    <col min="5377" max="5408" width="4.08984375" style="11" customWidth="1"/>
+    <col min="5377" max="5408" width="4.125" style="11" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="11" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="11"/>
-    <col min="5633" max="5664" width="4.08984375" style="11" customWidth="1"/>
+    <col min="5633" max="5664" width="4.125" style="11" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="11" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="11"/>
-    <col min="5889" max="5920" width="4.08984375" style="11" customWidth="1"/>
+    <col min="5889" max="5920" width="4.125" style="11" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="11" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="11"/>
-    <col min="6145" max="6176" width="4.08984375" style="11" customWidth="1"/>
+    <col min="6145" max="6176" width="4.125" style="11" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="11" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="11"/>
-    <col min="6401" max="6432" width="4.08984375" style="11" customWidth="1"/>
+    <col min="6401" max="6432" width="4.125" style="11" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="11" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="11"/>
-    <col min="6657" max="6688" width="4.08984375" style="11" customWidth="1"/>
+    <col min="6657" max="6688" width="4.125" style="11" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="11" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="11"/>
-    <col min="6913" max="6944" width="4.08984375" style="11" customWidth="1"/>
+    <col min="6913" max="6944" width="4.125" style="11" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="11" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="11"/>
-    <col min="7169" max="7200" width="4.08984375" style="11" customWidth="1"/>
+    <col min="7169" max="7200" width="4.125" style="11" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="11" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="11"/>
-    <col min="7425" max="7456" width="4.08984375" style="11" customWidth="1"/>
+    <col min="7425" max="7456" width="4.125" style="11" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="11" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="11"/>
-    <col min="7681" max="7712" width="4.08984375" style="11" customWidth="1"/>
+    <col min="7681" max="7712" width="4.125" style="11" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="11" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="11"/>
-    <col min="7937" max="7968" width="4.08984375" style="11" customWidth="1"/>
+    <col min="7937" max="7968" width="4.125" style="11" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="11" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="11"/>
-    <col min="8193" max="8224" width="4.08984375" style="11" customWidth="1"/>
+    <col min="8193" max="8224" width="4.125" style="11" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="11" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="11"/>
-    <col min="8449" max="8480" width="4.08984375" style="11" customWidth="1"/>
+    <col min="8449" max="8480" width="4.125" style="11" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="11" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="11"/>
-    <col min="8705" max="8736" width="4.08984375" style="11" customWidth="1"/>
+    <col min="8705" max="8736" width="4.125" style="11" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="11" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="11"/>
-    <col min="8961" max="8992" width="4.08984375" style="11" customWidth="1"/>
+    <col min="8961" max="8992" width="4.125" style="11" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="11" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="11"/>
-    <col min="9217" max="9248" width="4.08984375" style="11" customWidth="1"/>
+    <col min="9217" max="9248" width="4.125" style="11" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="11" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="11"/>
-    <col min="9473" max="9504" width="4.08984375" style="11" customWidth="1"/>
+    <col min="9473" max="9504" width="4.125" style="11" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="11" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="11"/>
-    <col min="9729" max="9760" width="4.08984375" style="11" customWidth="1"/>
+    <col min="9729" max="9760" width="4.125" style="11" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="11" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="11"/>
-    <col min="9985" max="10016" width="4.08984375" style="11" customWidth="1"/>
+    <col min="9985" max="10016" width="4.125" style="11" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="11" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="11"/>
-    <col min="10241" max="10272" width="4.08984375" style="11" customWidth="1"/>
+    <col min="10241" max="10272" width="4.125" style="11" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="11" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="11"/>
-    <col min="10497" max="10528" width="4.08984375" style="11" customWidth="1"/>
+    <col min="10497" max="10528" width="4.125" style="11" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="11" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="11"/>
-    <col min="10753" max="10784" width="4.08984375" style="11" customWidth="1"/>
+    <col min="10753" max="10784" width="4.125" style="11" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="11" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="11"/>
-    <col min="11009" max="11040" width="4.08984375" style="11" customWidth="1"/>
+    <col min="11009" max="11040" width="4.125" style="11" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="11" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="11"/>
-    <col min="11265" max="11296" width="4.08984375" style="11" customWidth="1"/>
+    <col min="11265" max="11296" width="4.125" style="11" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="11" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="11"/>
-    <col min="11521" max="11552" width="4.08984375" style="11" customWidth="1"/>
+    <col min="11521" max="11552" width="4.125" style="11" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="11" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="11"/>
-    <col min="11777" max="11808" width="4.08984375" style="11" customWidth="1"/>
+    <col min="11777" max="11808" width="4.125" style="11" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="11" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="11"/>
-    <col min="12033" max="12064" width="4.08984375" style="11" customWidth="1"/>
+    <col min="12033" max="12064" width="4.125" style="11" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="11" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="11"/>
-    <col min="12289" max="12320" width="4.08984375" style="11" customWidth="1"/>
+    <col min="12289" max="12320" width="4.125" style="11" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="11" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="11"/>
-    <col min="12545" max="12576" width="4.08984375" style="11" customWidth="1"/>
+    <col min="12545" max="12576" width="4.125" style="11" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="11" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="11"/>
-    <col min="12801" max="12832" width="4.08984375" style="11" customWidth="1"/>
+    <col min="12801" max="12832" width="4.125" style="11" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="11" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="11"/>
-    <col min="13057" max="13088" width="4.08984375" style="11" customWidth="1"/>
+    <col min="13057" max="13088" width="4.125" style="11" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="11" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="11"/>
-    <col min="13313" max="13344" width="4.08984375" style="11" customWidth="1"/>
+    <col min="13313" max="13344" width="4.125" style="11" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="11" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="11"/>
-    <col min="13569" max="13600" width="4.08984375" style="11" customWidth="1"/>
+    <col min="13569" max="13600" width="4.125" style="11" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="11" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="11"/>
-    <col min="13825" max="13856" width="4.08984375" style="11" customWidth="1"/>
+    <col min="13825" max="13856" width="4.125" style="11" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="11" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="11"/>
-    <col min="14081" max="14112" width="4.08984375" style="11" customWidth="1"/>
+    <col min="14081" max="14112" width="4.125" style="11" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="11" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="11"/>
-    <col min="14337" max="14368" width="4.08984375" style="11" customWidth="1"/>
+    <col min="14337" max="14368" width="4.125" style="11" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="11" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="11"/>
-    <col min="14593" max="14624" width="4.08984375" style="11" customWidth="1"/>
+    <col min="14593" max="14624" width="4.125" style="11" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="11" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="11"/>
-    <col min="14849" max="14880" width="4.08984375" style="11" customWidth="1"/>
+    <col min="14849" max="14880" width="4.125" style="11" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="11" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="11"/>
-    <col min="15105" max="15136" width="4.08984375" style="11" customWidth="1"/>
+    <col min="15105" max="15136" width="4.125" style="11" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="11" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="11"/>
-    <col min="15361" max="15392" width="4.08984375" style="11" customWidth="1"/>
+    <col min="15361" max="15392" width="4.125" style="11" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="11" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="11"/>
-    <col min="15617" max="15648" width="4.08984375" style="11" customWidth="1"/>
+    <col min="15617" max="15648" width="4.125" style="11" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="11" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="11"/>
-    <col min="15873" max="15904" width="4.08984375" style="11" customWidth="1"/>
+    <col min="15873" max="15904" width="4.125" style="11" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="11" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="11"/>
-    <col min="16129" max="16160" width="4.08984375" style="11" customWidth="1"/>
+    <col min="16129" max="16160" width="4.125" style="11" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="11" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="11"/>
   </cols>
@@ -4284,21 +4275,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="149" t="s">
+      <c r="U3" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="151">
+      <c r="V3" s="142"/>
+      <c r="W3" s="159">
         <v>45191</v>
       </c>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="153"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="135"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4410,20 +4401,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="136"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="146"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4441,66 +4432,66 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="145"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="155"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="133" t="s">
+      <c r="W8" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="133" t="s">
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="133"/>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="133" t="s">
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="133"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="148"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -4512,11 +4503,11 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="154" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
+      <c r="AC9" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="162"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4546,9 +4537,9 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="15"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="159"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4578,9 +4569,9 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="15"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="159"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="165"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4612,9 +4603,9 @@
       <c r="Z12" s="46"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="48"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="162"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="167"/>
+      <c r="AE12" s="168"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4709,106 +4700,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="163"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="139"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4947,408 +4938,408 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="149" t="s">
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="149" t="s">
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="149" t="s">
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="142"/>
+      <c r="AC23" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="150"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="165">
+      <c r="B24" s="133">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="166">
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136">
         <v>45191</v>
       </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="165" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="152"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="152"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD24" s="152"/>
-      <c r="AE24" s="153"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="135"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="165">
+      <c r="B25" s="133">
         <v>1.2</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="166">
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136">
         <v>45197</v>
       </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="152"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="152"/>
-      <c r="W25" s="152"/>
-      <c r="X25" s="152"/>
-      <c r="Y25" s="152"/>
-      <c r="Z25" s="152"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD25" s="152"/>
-      <c r="AE25" s="153"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="133" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="135"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="165">
+      <c r="B26" s="133">
         <v>1.3</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="166">
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136">
         <v>45198</v>
       </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="165" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="152"/>
-      <c r="Y26" s="152"/>
-      <c r="Z26" s="152"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="153"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="135"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="152"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="152"/>
-      <c r="AA27" s="152"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="152"/>
-      <c r="AE27" s="153"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="133"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="135"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="152"/>
-      <c r="X28" s="152"/>
-      <c r="Y28" s="152"/>
-      <c r="Z28" s="152"/>
-      <c r="AA28" s="152"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="152"/>
-      <c r="AE28" s="153"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="133"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="135"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="152"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="152"/>
-      <c r="U29" s="152"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="152"/>
-      <c r="X29" s="152"/>
-      <c r="Y29" s="152"/>
-      <c r="Z29" s="152"/>
-      <c r="AA29" s="152"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="152"/>
-      <c r="AE29" s="153"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="133"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="135"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="152"/>
-      <c r="Y30" s="152"/>
-      <c r="Z30" s="152"/>
-      <c r="AA30" s="152"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="152"/>
-      <c r="AE30" s="153"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="135"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="152"/>
-      <c r="S31" s="152"/>
-      <c r="T31" s="152"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="152"/>
-      <c r="X31" s="152"/>
-      <c r="Y31" s="152"/>
-      <c r="Z31" s="152"/>
-      <c r="AA31" s="152"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="152"/>
-      <c r="AE31" s="153"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="133"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="135"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="152"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="152"/>
-      <c r="W32" s="152"/>
-      <c r="X32" s="152"/>
-      <c r="Y32" s="152"/>
-      <c r="Z32" s="152"/>
-      <c r="AA32" s="152"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="152"/>
-      <c r="AE32" s="153"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="133"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="135"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="152"/>
-      <c r="U33" s="152"/>
-      <c r="V33" s="152"/>
-      <c r="W33" s="152"/>
-      <c r="X33" s="152"/>
-      <c r="Y33" s="152"/>
-      <c r="Z33" s="152"/>
-      <c r="AA33" s="152"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="152"/>
-      <c r="AE33" s="153"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="133"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="135"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5386,51 +5377,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5440,6 +5386,51 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5467,38 +5458,38 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="170"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="170"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
@@ -5511,12 +5502,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="170"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33" t="s">
@@ -5527,10 +5518,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="170"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
@@ -5541,12 +5532,12 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="170"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33" t="s">
@@ -5585,10 +5576,10 @@
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="172"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1">
       <c r="A9" s="8">
@@ -5598,69 +5589,69 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="171" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="172"/>
+      <c r="E9" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="170"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="171" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="172"/>
+      <c r="E10" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="170"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="171" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="172"/>
+      <c r="E11" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="170"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="172"/>
+      <c r="E12" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="170"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="8">
@@ -5669,8 +5660,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="8">
@@ -5679,8 +5670,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
@@ -5689,16 +5680,16 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="172"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="172"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -5718,7 +5709,7 @@
       <c r="A19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="2"/>
       <c r="B20"/>
       <c r="F20" s="3"/>
@@ -5949,6 +5940,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5958,11 +5954,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5987,14 +5978,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -6003,14 +5994,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -6032,7 +6023,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -6046,12 +6037,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6074,42 +6065,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="193" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="195"/>
+      <c r="C7" s="204" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="206"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -6130,10 +6121,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6152,14 +6143,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="213" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="214"/>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
@@ -6176,10 +6167,10 @@
       <c r="B11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="197"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="66" t="s">
         <v>50</v>
       </c>
@@ -6196,12 +6187,12 @@
       <c r="B12" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="196" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="197"/>
+      <c r="C12" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="176"/>
       <c r="E12" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>52</v>
@@ -6216,10 +6207,10 @@
       <c r="B13" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="197"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="66" t="s">
         <v>45</v>
       </c>
@@ -6232,8 +6223,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6242,8 +6233,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6252,8 +6243,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -6262,8 +6253,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -6272,8 +6263,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -6282,8 +6273,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -6292,8 +6283,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -6302,8 +6293,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -6312,8 +6303,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -6322,8 +6313,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -6332,8 +6323,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -6342,8 +6333,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -6352,8 +6343,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -6362,8 +6353,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -6372,8 +6363,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="183"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="199"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -6405,10 +6396,10 @@
       <c r="A31" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="83" t="s">
         <v>57</v>
       </c>
@@ -6423,51 +6414,51 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="59"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="188"/>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="180"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="190"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="180"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="190"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="74"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="199"/>
       <c r="G36" s="77"/>
       <c r="H36" s="78"/>
     </row>
@@ -6500,15 +6491,15 @@
       <c r="B39" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="186" t="s">
+      <c r="C39" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="186" t="s">
+      <c r="D39" s="200"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="208"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="87" t="s">
         <v>62</v>
       </c>
@@ -6516,51 +6507,51 @@
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="177"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="188"/>
       <c r="H40" s="90"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="91"/>
       <c r="B41" s="92"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="180"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="93"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="180"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="190"/>
       <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="180"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="190"/>
       <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="94"/>
       <c r="B44" s="95"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="199"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -6592,15 +6583,15 @@
       <c r="B47" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="186" t="s">
+      <c r="C47" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="187"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="206" t="s">
+      <c r="D47" s="200"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="207"/>
+      <c r="G47" s="184"/>
       <c r="H47" s="58" t="s">
         <v>65</v>
       </c>
@@ -6612,15 +6603,15 @@
       <c r="B48" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="200" t="s">
+      <c r="C48" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="204"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="200" t="s">
+      <c r="D48" s="202"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="201"/>
+      <c r="G48" s="194"/>
       <c r="H48" s="120" t="s">
         <v>69</v>
       </c>
@@ -6628,56 +6619,77 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="121"/>
       <c r="B50" s="122"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="202"/>
-      <c r="G50" s="203"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="196"/>
       <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="121"/>
       <c r="B51" s="122"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="205"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="202"/>
-      <c r="G51" s="203"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="196"/>
       <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="94"/>
       <c r="B52" s="95"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="199"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="192"/>
       <c r="H52" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F52:G52"/>
@@ -6694,38 +6706,17 @@
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6747,14 +6738,14 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -6763,14 +6754,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -6792,7 +6783,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -6806,12 +6797,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6834,28 +6825,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -6863,7 +6854,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -6890,10 +6881,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6912,21 +6903,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="183"/>
+      <c r="E10" s="61" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="214"/>
-      <c r="E10" s="61" t="s">
-        <v>112</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6934,14 +6925,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="197"/>
+        <v>125</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -6952,14 +6943,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="196" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="176"/>
+      <c r="E12" s="71" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="71" t="s">
-        <v>115</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -6970,14 +6961,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="197"/>
+        <v>115</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -6986,8 +6977,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6996,8 +6987,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7006,8 +6997,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7016,8 +7007,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7026,8 +7017,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7036,8 +7027,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7046,8 +7037,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7056,8 +7047,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7066,8 +7057,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7076,8 +7067,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7086,8 +7077,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7096,8 +7087,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7106,8 +7097,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7139,10 +7130,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7157,51 +7148,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7234,15 +7225,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -7254,17 +7245,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="201"/>
+      <c r="C38" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -7272,11 +7263,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -7284,31 +7275,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7340,15 +7331,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -7360,17 +7351,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="201"/>
+      <c r="C46" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7378,11 +7369,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -7390,47 +7381,67 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -7444,38 +7455,18 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7492,14 +7483,14 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -7508,14 +7499,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -7537,7 +7528,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -7551,12 +7542,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -7579,28 +7570,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -7608,7 +7599,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -7635,10 +7626,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -7657,21 +7648,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="183"/>
+      <c r="E10" s="61" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="214"/>
-      <c r="E10" s="61" t="s">
-        <v>112</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7679,14 +7670,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="197"/>
+        <v>119</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -7697,14 +7688,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="176"/>
+      <c r="E12" s="71" t="s">
         <v>121</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="71" t="s">
-        <v>122</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -7715,14 +7706,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="197"/>
+        <v>122</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -7731,8 +7722,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -7741,8 +7732,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7751,8 +7742,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7761,8 +7752,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7771,8 +7762,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7781,8 +7772,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7791,8 +7782,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7801,8 +7792,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7811,8 +7802,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7821,8 +7812,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7831,8 +7822,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7841,8 +7832,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7851,8 +7842,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7884,10 +7875,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7902,51 +7893,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7979,15 +7970,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -7999,17 +7990,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="201"/>
+      <c r="C38" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -8017,11 +8008,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8029,31 +8020,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8085,15 +8076,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8105,17 +8096,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="201"/>
+      <c r="C46" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8123,11 +8114,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8135,47 +8126,67 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -8189,38 +8200,18 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8237,14 +8228,14 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -8253,14 +8244,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -8292,12 +8283,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -8320,28 +8311,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -8349,7 +8340,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -8376,10 +8367,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -8398,14 +8389,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>94</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
@@ -8420,14 +8411,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="197"/>
+        <v>128</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>52</v>
@@ -8440,14 +8431,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="197"/>
+        <v>129</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>52</v>
@@ -8460,14 +8451,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="197"/>
+        <v>130</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -8478,14 +8469,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="197"/>
+        <v>131</v>
+      </c>
+      <c r="C14" s="175" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="176"/>
       <c r="E14" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>52</v>
@@ -8498,14 +8489,14 @@
         <v>6</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="197"/>
+        <v>132</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="176"/>
       <c r="E15" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -8516,14 +8507,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="196" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="197"/>
+        <v>133</v>
+      </c>
+      <c r="C16" s="175" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="176"/>
       <c r="E16" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -8534,14 +8525,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="196" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="197"/>
+        <v>134</v>
+      </c>
+      <c r="C17" s="175" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="176"/>
       <c r="E17" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -8550,8 +8541,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -8560,8 +8551,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -8570,8 +8561,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -8580,8 +8571,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -8590,8 +8581,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -8600,8 +8591,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -8610,8 +8601,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -8620,8 +8611,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -8630,8 +8621,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -8663,10 +8654,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -8681,51 +8672,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -8758,15 +8749,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -8778,17 +8769,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="201"/>
+      <c r="C38" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -8796,11 +8787,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8808,31 +8799,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8864,15 +8855,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8884,17 +8875,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="201"/>
+      <c r="C46" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8902,11 +8893,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8914,44 +8905,71 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -8964,42 +8982,15 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9014,18 +9005,18 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.08984375" customWidth="1"/>
+    <col min="3" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="108" t="s">
         <v>81</v>
       </c>
@@ -9047,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -9058,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="113"/>
       <c r="K2" s="114" t="s">
@@ -9097,7 +9088,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="113"/>
@@ -9134,7 +9125,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
@@ -9153,7 +9144,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="113"/>
       <c r="D7" s="113"/>
@@ -9195,13 +9186,13 @@
         <v>18</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="131"/>
       <c r="L10" s="129"/>
@@ -9232,13 +9223,13 @@
       <c r="A12" s="98"/>
       <c r="B12" s="225"/>
       <c r="C12" s="227" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="228"/>
       <c r="E12" s="228"/>
       <c r="F12" s="229"/>
       <c r="G12" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
@@ -9251,13 +9242,13 @@
       <c r="A13" s="98"/>
       <c r="B13" s="225"/>
       <c r="C13" s="227" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="228"/>
       <c r="E13" s="228"/>
       <c r="F13" s="229"/>
       <c r="G13" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
@@ -9270,13 +9261,13 @@
       <c r="A14" s="98"/>
       <c r="B14" s="225"/>
       <c r="C14" s="227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="228"/>
       <c r="E14" s="228"/>
       <c r="F14" s="229"/>
       <c r="G14" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -9289,14 +9280,14 @@
       <c r="A15" s="98"/>
       <c r="B15" s="225"/>
       <c r="C15" s="227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
       <c r="F15" s="229"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="127"/>
@@ -9308,7 +9299,7 @@
       <c r="A16" s="98"/>
       <c r="B16" s="225"/>
       <c r="C16" s="227" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="228"/>
       <c r="E16" s="228"/>
@@ -9316,7 +9307,7 @@
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J16" s="127"/>
       <c r="K16" s="131"/>
@@ -9327,7 +9318,7 @@
       <c r="A17" s="98"/>
       <c r="B17" s="226"/>
       <c r="C17" s="227" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="228"/>
       <c r="E17" s="228"/>
@@ -9336,7 +9327,7 @@
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
       <c r="J17" s="127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K17" s="131"/>
       <c r="L17" s="129"/>
@@ -9391,14 +9382,14 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -9407,7 +9398,7 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
@@ -9444,12 +9435,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -9472,24 +9463,24 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -9522,10 +9513,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -9544,12 +9535,12 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>94</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
         <v>71</v>
       </c>
@@ -9564,8 +9555,8 @@
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -9574,8 +9565,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -9584,8 +9575,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -9594,8 +9585,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -9604,8 +9595,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -9614,8 +9605,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -9624,8 +9615,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -9634,8 +9625,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -9644,8 +9635,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -9654,8 +9645,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -9664,8 +9655,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -9674,8 +9665,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -9684,8 +9675,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -9694,8 +9685,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -9704,8 +9695,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -9714,8 +9705,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -9747,10 +9738,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -9765,51 +9756,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -9842,15 +9833,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -9862,15 +9853,15 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="200" t="s">
+      <c r="C38" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="201"/>
+      <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
         <v>73</v>
       </c>
@@ -9882,15 +9873,15 @@
       <c r="B39" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="202" t="s">
+      <c r="C39" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202" t="s">
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="203"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123" t="s">
         <v>75</v>
       </c>
@@ -9902,15 +9893,15 @@
       <c r="B40" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="202" t="s">
+      <c r="C40" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202" t="s">
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="203"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123" t="s">
         <v>77</v>
       </c>
@@ -9918,21 +9909,21 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -9964,15 +9955,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -9984,15 +9975,15 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="200" t="s">
+      <c r="C46" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="201"/>
+      <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
         <v>73</v>
       </c>
@@ -10004,15 +9995,15 @@
       <c r="B47" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="202" t="s">
+      <c r="C47" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202" t="s">
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="203"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123" t="s">
         <v>73</v>
       </c>
@@ -10024,15 +10015,15 @@
       <c r="B48" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="202" t="s">
+      <c r="C48" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202" t="s">
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="203"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123" t="s">
         <v>77</v>
       </c>
@@ -10040,37 +10031,57 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -10084,46 +10095,45 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="442e66238a47e6a383c7bc2d6eb82e4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c6b4cf86c461cb44a843f6d22037aa6" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -10281,26 +10291,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C8621D-7C2F-4B15-827B-F8E79AB7AB0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10316,22 +10325,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\healthApp\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A4400-612E-49BA-85AF-2362570F4FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9F88A-D6DD-4A83-BE82-80B169490BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2336,15 +2336,105 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2354,95 +2444,11 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2456,10 +2462,67 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2468,6 +2531,39 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2477,9 +2573,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2487,99 +2580,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2677,8 +2677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3441425" y="6207025"/>
-          <a:ext cx="2096020" cy="1917915"/>
+          <a:off x="3617388" y="6172598"/>
+          <a:ext cx="2260509" cy="1921739"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -2871,8 +2871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3503610" y="8976178"/>
-          <a:ext cx="2089899" cy="1907631"/>
+          <a:off x="3679573" y="8945575"/>
+          <a:ext cx="2254388" cy="1907632"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -3110,8 +3110,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="361721" y="9002005"/>
-          <a:ext cx="2120502" cy="1902613"/>
+          <a:off x="388498" y="8971402"/>
+          <a:ext cx="2269688" cy="1902614"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -3327,8 +3327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6227591" y="8966505"/>
-          <a:ext cx="2166405" cy="3350965"/>
+          <a:off x="6755483" y="8935902"/>
+          <a:ext cx="2254387" cy="3350965"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -4275,21 +4275,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="140" t="s">
+      <c r="U3" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="142"/>
-      <c r="W3" s="159">
+      <c r="V3" s="150"/>
+      <c r="W3" s="151">
         <v>45191</v>
       </c>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="135"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="153"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4401,20 +4401,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="146"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="136"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4432,66 +4432,66 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="153" t="s">
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="145"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="143" t="s">
+      <c r="W8" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143" t="s">
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143" t="s">
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="148"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -4503,11 +4503,11 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="160" t="s">
+      <c r="AC9" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="162"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4537,9 +4537,9 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="15"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="165"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="159"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4569,9 +4569,9 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="15"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="165"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="158"/>
+      <c r="AE11" s="159"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4603,9 +4603,9 @@
       <c r="Z12" s="46"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="48"/>
-      <c r="AC12" s="166"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="168"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="162"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4700,106 +4700,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="163"/>
+      <c r="X16" s="163"/>
+      <c r="Y16" s="163"/>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="163"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="163"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="163"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="163"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="163"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="139"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="163"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4938,408 +4938,408 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="140" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="140" t="s">
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="140" t="s">
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="142"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="150"/>
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="133">
+      <c r="B24" s="165">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136">
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="166">
         <v>45191</v>
       </c>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="133" t="s">
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="134"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="133" t="s">
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="135"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="153"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="133">
+      <c r="B25" s="165">
         <v>1.2</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="136">
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="166">
         <v>45197</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="133" t="s">
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="134"/>
-      <c r="W25" s="134"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="134"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="133" t="s">
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="AD25" s="134"/>
-      <c r="AE25" s="135"/>
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="153"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="133">
+      <c r="B26" s="165">
         <v>1.3</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="136">
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="166">
         <v>45198</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="133" t="s">
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="134"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="134"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="133" t="s">
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="135"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="153"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="133"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="135"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="152"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="165"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="153"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="134"/>
-      <c r="X28" s="134"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="133"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="135"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="152"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="153"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="133"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="135"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="152"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="153"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="135"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="153"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="133"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="135"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="153"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="133"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="135"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="153"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="133"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="135"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="165"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="153"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5377,6 +5377,51 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5386,51 +5431,6 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5470,10 +5470,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
+      <c r="B1" s="170"/>
       <c r="C1" s="31" t="s">
         <v>88</v>
       </c>
@@ -5486,10 +5486,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
@@ -5502,10 +5502,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="174"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="31" t="s">
         <v>89</v>
       </c>
@@ -5518,10 +5518,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="174"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
@@ -5532,10 +5532,10 @@
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="174"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="31" t="s">
         <v>100</v>
       </c>
@@ -5576,10 +5576,10 @@
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="172"/>
+      <c r="F8" s="174"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1">
       <c r="A9" s="8">
@@ -5594,10 +5594,10 @@
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="169" t="s">
+      <c r="E9" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="170"/>
+      <c r="F9" s="172"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="8">
@@ -5612,10 +5612,10 @@
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="170"/>
+      <c r="F10" s="172"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="8">
@@ -5630,10 +5630,10 @@
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="169" t="s">
+      <c r="E11" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="170"/>
+      <c r="F11" s="172"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="8">
@@ -5648,10 +5648,10 @@
       <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="170"/>
+      <c r="F12" s="172"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="8">
@@ -5660,8 +5660,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="8">
@@ -5670,8 +5670,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
@@ -5680,16 +5680,16 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="172"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="172"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -5940,11 +5940,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5954,6 +5949,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5974,8 +5974,8 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6037,12 +6037,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6065,42 +6065,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="204" t="s">
+      <c r="C7" s="193" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="206"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -6121,10 +6121,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6145,10 +6145,10 @@
       <c r="B10" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>101</v>
       </c>
@@ -6167,10 +6167,10 @@
       <c r="B11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="66" t="s">
         <v>50</v>
       </c>
@@ -6187,10 +6187,10 @@
       <c r="B12" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="66" t="s">
         <v>104</v>
       </c>
@@ -6207,10 +6207,10 @@
       <c r="B13" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="66" t="s">
         <v>45</v>
       </c>
@@ -6223,8 +6223,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6233,8 +6233,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6243,8 +6243,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -6253,8 +6253,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -6263,8 +6263,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -6273,8 +6273,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -6283,8 +6283,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -6293,8 +6293,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -6303,8 +6303,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -6313,8 +6313,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -6323,8 +6323,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -6333,8 +6333,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -6343,8 +6343,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -6353,8 +6353,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -6363,8 +6363,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="199"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="183"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -6396,10 +6396,10 @@
       <c r="A31" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="201"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="83" t="s">
         <v>57</v>
       </c>
@@ -6414,51 +6414,51 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="59"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="190"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="180"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="190"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="74"/>
-      <c r="B36" s="211"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="199"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="183"/>
       <c r="G36" s="77"/>
       <c r="H36" s="78"/>
     </row>
@@ -6491,15 +6491,15 @@
       <c r="B39" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="185" t="s">
+      <c r="C39" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="200"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="185" t="s">
+      <c r="D39" s="187"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="186"/>
+      <c r="G39" s="208"/>
       <c r="H39" s="87" t="s">
         <v>62</v>
       </c>
@@ -6507,51 +6507,51 @@
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="188"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="90"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="91"/>
       <c r="B41" s="92"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="190"/>
+      <c r="C41" s="178"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="180"/>
       <c r="H41" s="93"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="190"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="180"/>
       <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="190"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="94"/>
       <c r="B44" s="95"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="199"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="192"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="199"/>
       <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -6583,15 +6583,15 @@
       <c r="B47" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="185" t="s">
+      <c r="C47" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="200"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="180" t="s">
+      <c r="D47" s="187"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="184"/>
+      <c r="G47" s="207"/>
       <c r="H47" s="58" t="s">
         <v>65</v>
       </c>
@@ -6603,15 +6603,15 @@
       <c r="B48" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="193" t="s">
+      <c r="C48" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="202"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="193" t="s">
+      <c r="D48" s="204"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="194"/>
+      <c r="G48" s="201"/>
       <c r="H48" s="120" t="s">
         <v>69</v>
       </c>
@@ -6619,61 +6619,72 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="121"/>
       <c r="B50" s="122"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="196"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="203"/>
       <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="121"/>
       <c r="B51" s="122"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="196"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="203"/>
       <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="94"/>
       <c r="B52" s="95"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="192"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="199"/>
       <c r="H52" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -6690,33 +6701,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6797,12 +6797,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6825,28 +6825,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -6881,10 +6881,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6905,10 +6905,10 @@
       <c r="B10" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>111</v>
       </c>
@@ -6927,10 +6927,10 @@
       <c r="B11" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71" t="s">
         <v>114</v>
       </c>
@@ -6945,10 +6945,10 @@
       <c r="B12" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71" t="s">
         <v>114</v>
       </c>
@@ -6963,10 +6963,10 @@
       <c r="B13" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71" t="s">
         <v>114</v>
       </c>
@@ -6977,8 +6977,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6987,8 +6987,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6997,8 +6997,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7007,8 +7007,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7017,8 +7017,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7027,8 +7027,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7037,8 +7037,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7047,8 +7047,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7057,8 +7057,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7067,8 +7067,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7077,8 +7077,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7087,8 +7087,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7097,8 +7097,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7130,10 +7130,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7148,51 +7148,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7225,15 +7225,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -7245,15 +7245,15 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
+      <c r="C38" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
         <v>168</v>
       </c>
@@ -7263,11 +7263,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="196"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -7275,31 +7275,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7331,15 +7331,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -7351,15 +7351,15 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
         <v>168</v>
       </c>
@@ -7369,11 +7369,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -7381,67 +7381,47 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -7455,18 +7435,38 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7542,12 +7542,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -7570,28 +7570,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -7626,10 +7626,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -7650,10 +7650,10 @@
       <c r="B10" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>111</v>
       </c>
@@ -7672,10 +7672,10 @@
       <c r="B11" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71" t="s">
         <v>121</v>
       </c>
@@ -7690,10 +7690,10 @@
       <c r="B12" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71" t="s">
         <v>121</v>
       </c>
@@ -7708,10 +7708,10 @@
       <c r="B13" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71" t="s">
         <v>121</v>
       </c>
@@ -7722,8 +7722,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -7732,8 +7732,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7742,8 +7742,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7752,8 +7752,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7762,8 +7762,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7772,8 +7772,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7782,8 +7782,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7792,8 +7792,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7802,8 +7802,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7812,8 +7812,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7822,8 +7822,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7832,8 +7832,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7842,8 +7842,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7875,10 +7875,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7893,51 +7893,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7970,15 +7970,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -7990,15 +7990,15 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
+      <c r="C38" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
         <v>168</v>
       </c>
@@ -8008,11 +8008,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="196"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8020,31 +8020,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8076,15 +8076,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8096,15 +8096,15 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
         <v>168</v>
       </c>
@@ -8114,11 +8114,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8126,67 +8126,47 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -8200,18 +8180,38 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8226,7 +8226,9 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -8283,12 +8285,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -8311,28 +8313,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -8367,10 +8369,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -8391,10 +8393,10 @@
       <c r="B10" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>127</v>
       </c>
@@ -8413,10 +8415,10 @@
       <c r="B11" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="196" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71" t="s">
         <v>142</v>
       </c>
@@ -8433,10 +8435,10 @@
       <c r="B12" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="196" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71" t="s">
         <v>143</v>
       </c>
@@ -8453,10 +8455,10 @@
       <c r="B13" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71" t="s">
         <v>144</v>
       </c>
@@ -8471,10 +8473,10 @@
       <c r="B14" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="196" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="176"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71" t="s">
         <v>143</v>
       </c>
@@ -8491,10 +8493,10 @@
       <c r="B15" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="196" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="176"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71" t="s">
         <v>145</v>
       </c>
@@ -8509,10 +8511,10 @@
       <c r="B16" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="176"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71" t="s">
         <v>142</v>
       </c>
@@ -8527,10 +8529,10 @@
       <c r="B17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71" t="s">
         <v>146</v>
       </c>
@@ -8541,8 +8543,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -8551,8 +8553,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -8561,8 +8563,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -8571,8 +8573,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -8581,8 +8583,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -8591,8 +8593,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -8601,8 +8603,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -8611,8 +8613,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -8621,8 +8623,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -8654,10 +8656,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -8672,51 +8674,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -8749,15 +8751,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -8769,15 +8771,15 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
+      <c r="C38" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
         <v>168</v>
       </c>
@@ -8787,11 +8789,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="196"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8799,31 +8801,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8855,15 +8857,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8875,15 +8877,15 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
         <v>168</v>
       </c>
@@ -8893,11 +8895,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8905,71 +8907,44 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -8982,15 +8957,42 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9435,12 +9437,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="211"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -9463,24 +9465,24 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="206"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -9513,10 +9515,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -9537,10 +9539,10 @@
       <c r="B10" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="183"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="61" t="s">
         <v>71</v>
       </c>
@@ -9555,8 +9557,8 @@
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -9565,8 +9567,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -9575,8 +9577,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -9585,8 +9587,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -9595,8 +9597,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -9605,8 +9607,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -9615,8 +9617,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -9625,8 +9627,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -9635,8 +9637,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -9645,8 +9647,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -9655,8 +9657,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -9665,8 +9667,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -9675,8 +9677,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -9685,8 +9687,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -9695,8 +9697,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -9705,8 +9707,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="199"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -9738,10 +9740,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="201"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -9756,51 +9758,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="190"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="190"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -9833,15 +9835,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="185" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="186"/>
+      <c r="G37" s="208"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -9853,15 +9855,15 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="193" t="s">
+      <c r="C38" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="193" t="s">
+      <c r="D38" s="204"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="194"/>
+      <c r="G38" s="201"/>
       <c r="H38" s="120" t="s">
         <v>73</v>
       </c>
@@ -9873,15 +9875,15 @@
       <c r="B39" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="195" t="s">
+      <c r="C39" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="203"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="195" t="s">
+      <c r="D39" s="205"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="196"/>
+      <c r="G39" s="203"/>
       <c r="H39" s="123" t="s">
         <v>75</v>
       </c>
@@ -9893,15 +9895,15 @@
       <c r="B40" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="195" t="s">
+      <c r="C40" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="203"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="195" t="s">
+      <c r="D40" s="205"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="196"/>
+      <c r="G40" s="203"/>
       <c r="H40" s="123" t="s">
         <v>77</v>
       </c>
@@ -9909,21 +9911,21 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="203"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="199"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -9955,15 +9957,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="185" t="s">
+      <c r="C45" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="180" t="s">
+      <c r="D45" s="187"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="184"/>
+      <c r="G45" s="207"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -9975,15 +9977,15 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="193" t="s">
+      <c r="C46" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="193" t="s">
+      <c r="D46" s="204"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="194"/>
+      <c r="G46" s="201"/>
       <c r="H46" s="120" t="s">
         <v>73</v>
       </c>
@@ -9995,15 +9997,15 @@
       <c r="B47" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="203"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="195" t="s">
+      <c r="D47" s="205"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="196"/>
+      <c r="G47" s="203"/>
       <c r="H47" s="123" t="s">
         <v>73</v>
       </c>
@@ -10015,15 +10017,15 @@
       <c r="B48" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="195" t="s">
+      <c r="C48" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="203"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="195" t="s">
+      <c r="D48" s="205"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="196"/>
+      <c r="G48" s="203"/>
       <c r="H48" s="123" t="s">
         <v>77</v>
       </c>
@@ -10031,57 +10033,37 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="202"/>
+      <c r="G49" s="203"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="199"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -10095,18 +10077,38 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10125,15 +10127,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="442e66238a47e6a383c7bc2d6eb82e4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c6b4cf86c461cb44a843f6d22037aa6" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -10291,6 +10284,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
   <ds:schemaRefs>
@@ -10302,14 +10304,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C8621D-7C2F-4B15-827B-F8E79AB7AB0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10325,4 +10319,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2101201\Documents\GitHub\healthApp\03_DB設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9F88A-D6DD-4A83-BE82-80B169490BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D90856-EA20-4EF6-B038-F743DC4D59AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="170">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -422,15 +422,6 @@
     <t>ー</t>
   </si>
   <si>
-    <t>ユーザID(user_id)</t>
-  </si>
-  <si>
-    <t>カート(carts)</t>
-  </si>
-  <si>
-    <t>ユーザーID(user_id)</t>
-  </si>
-  <si>
     <t>商品在庫</t>
   </si>
   <si>
@@ -990,6 +981,20 @@
     <t>諸熊</t>
     <rPh sb="0" eb="2">
       <t>モロクマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中嶋</t>
+    <rPh sb="0" eb="2">
+      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2336,6 +2341,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2384,21 +2419,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2426,23 +2449,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2450,136 +2467,124 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2677,8 +2682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3617388" y="6172598"/>
-          <a:ext cx="2260509" cy="1921739"/>
+          <a:off x="3441425" y="6207025"/>
+          <a:ext cx="2096020" cy="1917915"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -2848,13 +2853,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1590959</xdr:colOff>
+      <xdr:colOff>1560356</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>40274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905919</xdr:colOff>
+      <xdr:colOff>1875316</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>19954</xdr:rowOff>
     </xdr:to>
@@ -2871,8 +2876,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3679573" y="8945575"/>
-          <a:ext cx="2254388" cy="1907632"/>
+          <a:off x="3473007" y="8976178"/>
+          <a:ext cx="2089899" cy="1907631"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -3110,8 +3115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="388498" y="8971402"/>
-          <a:ext cx="2269688" cy="1902614"/>
+          <a:off x="361721" y="9002005"/>
+          <a:ext cx="2120502" cy="1902613"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -3327,8 +3332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6755483" y="8935902"/>
-          <a:ext cx="2254387" cy="3350965"/>
+          <a:off x="6227591" y="8966505"/>
+          <a:ext cx="2166405" cy="3350965"/>
           <a:chOff x="9946640" y="5334000"/>
           <a:chExt cx="2255520" cy="2255520"/>
         </a:xfrm>
@@ -3548,6 +3553,652 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1070045</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1528775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A13381-15BD-3B0B-8DB2-6308FFD75A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1421973" y="7360365"/>
+          <a:ext cx="2019453" cy="1641639"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1849855</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>639469</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCE6DD7-98DF-BF4F-B249-CD8E555A16D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537445" y="7360366"/>
+          <a:ext cx="1773349" cy="1606139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>801845</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>830367</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF33B20E-1684-EAE3-3898-DCE4844533EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4489435" y="8124940"/>
+          <a:ext cx="28522" cy="851238"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>772711</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>860845</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1F7984-6CD5-6C67-ED2D-F651058FD598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4460301" y="8117289"/>
+          <a:ext cx="88134" cy="95785"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1445351</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1533485</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E451C5CE-DA36-439D-A42B-C60057C9E16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3358002" y="7321013"/>
+          <a:ext cx="88134" cy="95785"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612049</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>700183</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>26929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E022C4E1-3CEC-47BD-A10E-B9586453C357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7283374" y="8867048"/>
+          <a:ext cx="88134" cy="95785"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1828494</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1916628</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118738</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AFAE26-9697-43B8-AE32-794CFFAB5168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516084" y="7306326"/>
+          <a:ext cx="88134" cy="95785"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>849217</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76505</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0FB619-DD05-00BF-4C20-23319ECB532C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4536807" y="8048433"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>p</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>397219</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52942</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEC4D8A-1FE6-4AA5-A760-D23D8A0C407B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7068544" y="8713424"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>p</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1851446</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F4DDB1-1A6C-4367-84C5-94F15E6F52E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539036" y="7023253"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>p</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1254698</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45903</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258789" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D715A3-AFEC-49DA-A4D8-490262C2C9DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3167349" y="7053855"/>
+          <a:ext cx="258789" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>p</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3843,202 +4494,204 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27:AE27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="11" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="11" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
+    <col min="7" max="32" width="4.08984375" style="11" customWidth="1"/>
     <col min="33" max="36" width="4" style="11" customWidth="1"/>
     <col min="37" max="256" width="9" style="11"/>
-    <col min="257" max="288" width="4.125" style="11" customWidth="1"/>
+    <col min="257" max="288" width="4.08984375" style="11" customWidth="1"/>
     <col min="289" max="292" width="4" style="11" customWidth="1"/>
     <col min="293" max="512" width="9" style="11"/>
-    <col min="513" max="544" width="4.125" style="11" customWidth="1"/>
+    <col min="513" max="544" width="4.08984375" style="11" customWidth="1"/>
     <col min="545" max="548" width="4" style="11" customWidth="1"/>
     <col min="549" max="768" width="9" style="11"/>
-    <col min="769" max="800" width="4.125" style="11" customWidth="1"/>
+    <col min="769" max="800" width="4.08984375" style="11" customWidth="1"/>
     <col min="801" max="804" width="4" style="11" customWidth="1"/>
     <col min="805" max="1024" width="9" style="11"/>
-    <col min="1025" max="1056" width="4.125" style="11" customWidth="1"/>
+    <col min="1025" max="1056" width="4.08984375" style="11" customWidth="1"/>
     <col min="1057" max="1060" width="4" style="11" customWidth="1"/>
     <col min="1061" max="1280" width="9" style="11"/>
-    <col min="1281" max="1312" width="4.125" style="11" customWidth="1"/>
+    <col min="1281" max="1312" width="4.08984375" style="11" customWidth="1"/>
     <col min="1313" max="1316" width="4" style="11" customWidth="1"/>
     <col min="1317" max="1536" width="9" style="11"/>
-    <col min="1537" max="1568" width="4.125" style="11" customWidth="1"/>
+    <col min="1537" max="1568" width="4.08984375" style="11" customWidth="1"/>
     <col min="1569" max="1572" width="4" style="11" customWidth="1"/>
     <col min="1573" max="1792" width="9" style="11"/>
-    <col min="1793" max="1824" width="4.125" style="11" customWidth="1"/>
+    <col min="1793" max="1824" width="4.08984375" style="11" customWidth="1"/>
     <col min="1825" max="1828" width="4" style="11" customWidth="1"/>
     <col min="1829" max="2048" width="9" style="11"/>
-    <col min="2049" max="2080" width="4.125" style="11" customWidth="1"/>
+    <col min="2049" max="2080" width="4.08984375" style="11" customWidth="1"/>
     <col min="2081" max="2084" width="4" style="11" customWidth="1"/>
     <col min="2085" max="2304" width="9" style="11"/>
-    <col min="2305" max="2336" width="4.125" style="11" customWidth="1"/>
+    <col min="2305" max="2336" width="4.08984375" style="11" customWidth="1"/>
     <col min="2337" max="2340" width="4" style="11" customWidth="1"/>
     <col min="2341" max="2560" width="9" style="11"/>
-    <col min="2561" max="2592" width="4.125" style="11" customWidth="1"/>
+    <col min="2561" max="2592" width="4.08984375" style="11" customWidth="1"/>
     <col min="2593" max="2596" width="4" style="11" customWidth="1"/>
     <col min="2597" max="2816" width="9" style="11"/>
-    <col min="2817" max="2848" width="4.125" style="11" customWidth="1"/>
+    <col min="2817" max="2848" width="4.08984375" style="11" customWidth="1"/>
     <col min="2849" max="2852" width="4" style="11" customWidth="1"/>
     <col min="2853" max="3072" width="9" style="11"/>
-    <col min="3073" max="3104" width="4.125" style="11" customWidth="1"/>
+    <col min="3073" max="3104" width="4.08984375" style="11" customWidth="1"/>
     <col min="3105" max="3108" width="4" style="11" customWidth="1"/>
     <col min="3109" max="3328" width="9" style="11"/>
-    <col min="3329" max="3360" width="4.125" style="11" customWidth="1"/>
+    <col min="3329" max="3360" width="4.08984375" style="11" customWidth="1"/>
     <col min="3361" max="3364" width="4" style="11" customWidth="1"/>
     <col min="3365" max="3584" width="9" style="11"/>
-    <col min="3585" max="3616" width="4.125" style="11" customWidth="1"/>
+    <col min="3585" max="3616" width="4.08984375" style="11" customWidth="1"/>
     <col min="3617" max="3620" width="4" style="11" customWidth="1"/>
     <col min="3621" max="3840" width="9" style="11"/>
-    <col min="3841" max="3872" width="4.125" style="11" customWidth="1"/>
+    <col min="3841" max="3872" width="4.08984375" style="11" customWidth="1"/>
     <col min="3873" max="3876" width="4" style="11" customWidth="1"/>
     <col min="3877" max="4096" width="9" style="11"/>
-    <col min="4097" max="4128" width="4.125" style="11" customWidth="1"/>
+    <col min="4097" max="4128" width="4.08984375" style="11" customWidth="1"/>
     <col min="4129" max="4132" width="4" style="11" customWidth="1"/>
     <col min="4133" max="4352" width="9" style="11"/>
-    <col min="4353" max="4384" width="4.125" style="11" customWidth="1"/>
+    <col min="4353" max="4384" width="4.08984375" style="11" customWidth="1"/>
     <col min="4385" max="4388" width="4" style="11" customWidth="1"/>
     <col min="4389" max="4608" width="9" style="11"/>
-    <col min="4609" max="4640" width="4.125" style="11" customWidth="1"/>
+    <col min="4609" max="4640" width="4.08984375" style="11" customWidth="1"/>
     <col min="4641" max="4644" width="4" style="11" customWidth="1"/>
     <col min="4645" max="4864" width="9" style="11"/>
-    <col min="4865" max="4896" width="4.125" style="11" customWidth="1"/>
+    <col min="4865" max="4896" width="4.08984375" style="11" customWidth="1"/>
     <col min="4897" max="4900" width="4" style="11" customWidth="1"/>
     <col min="4901" max="5120" width="9" style="11"/>
-    <col min="5121" max="5152" width="4.125" style="11" customWidth="1"/>
+    <col min="5121" max="5152" width="4.08984375" style="11" customWidth="1"/>
     <col min="5153" max="5156" width="4" style="11" customWidth="1"/>
     <col min="5157" max="5376" width="9" style="11"/>
-    <col min="5377" max="5408" width="4.125" style="11" customWidth="1"/>
+    <col min="5377" max="5408" width="4.08984375" style="11" customWidth="1"/>
     <col min="5409" max="5412" width="4" style="11" customWidth="1"/>
     <col min="5413" max="5632" width="9" style="11"/>
-    <col min="5633" max="5664" width="4.125" style="11" customWidth="1"/>
+    <col min="5633" max="5664" width="4.08984375" style="11" customWidth="1"/>
     <col min="5665" max="5668" width="4" style="11" customWidth="1"/>
     <col min="5669" max="5888" width="9" style="11"/>
-    <col min="5889" max="5920" width="4.125" style="11" customWidth="1"/>
+    <col min="5889" max="5920" width="4.08984375" style="11" customWidth="1"/>
     <col min="5921" max="5924" width="4" style="11" customWidth="1"/>
     <col min="5925" max="6144" width="9" style="11"/>
-    <col min="6145" max="6176" width="4.125" style="11" customWidth="1"/>
+    <col min="6145" max="6176" width="4.08984375" style="11" customWidth="1"/>
     <col min="6177" max="6180" width="4" style="11" customWidth="1"/>
     <col min="6181" max="6400" width="9" style="11"/>
-    <col min="6401" max="6432" width="4.125" style="11" customWidth="1"/>
+    <col min="6401" max="6432" width="4.08984375" style="11" customWidth="1"/>
     <col min="6433" max="6436" width="4" style="11" customWidth="1"/>
     <col min="6437" max="6656" width="9" style="11"/>
-    <col min="6657" max="6688" width="4.125" style="11" customWidth="1"/>
+    <col min="6657" max="6688" width="4.08984375" style="11" customWidth="1"/>
     <col min="6689" max="6692" width="4" style="11" customWidth="1"/>
     <col min="6693" max="6912" width="9" style="11"/>
-    <col min="6913" max="6944" width="4.125" style="11" customWidth="1"/>
+    <col min="6913" max="6944" width="4.08984375" style="11" customWidth="1"/>
     <col min="6945" max="6948" width="4" style="11" customWidth="1"/>
     <col min="6949" max="7168" width="9" style="11"/>
-    <col min="7169" max="7200" width="4.125" style="11" customWidth="1"/>
+    <col min="7169" max="7200" width="4.08984375" style="11" customWidth="1"/>
     <col min="7201" max="7204" width="4" style="11" customWidth="1"/>
     <col min="7205" max="7424" width="9" style="11"/>
-    <col min="7425" max="7456" width="4.125" style="11" customWidth="1"/>
+    <col min="7425" max="7456" width="4.08984375" style="11" customWidth="1"/>
     <col min="7457" max="7460" width="4" style="11" customWidth="1"/>
     <col min="7461" max="7680" width="9" style="11"/>
-    <col min="7681" max="7712" width="4.125" style="11" customWidth="1"/>
+    <col min="7681" max="7712" width="4.08984375" style="11" customWidth="1"/>
     <col min="7713" max="7716" width="4" style="11" customWidth="1"/>
     <col min="7717" max="7936" width="9" style="11"/>
-    <col min="7937" max="7968" width="4.125" style="11" customWidth="1"/>
+    <col min="7937" max="7968" width="4.08984375" style="11" customWidth="1"/>
     <col min="7969" max="7972" width="4" style="11" customWidth="1"/>
     <col min="7973" max="8192" width="9" style="11"/>
-    <col min="8193" max="8224" width="4.125" style="11" customWidth="1"/>
+    <col min="8193" max="8224" width="4.08984375" style="11" customWidth="1"/>
     <col min="8225" max="8228" width="4" style="11" customWidth="1"/>
     <col min="8229" max="8448" width="9" style="11"/>
-    <col min="8449" max="8480" width="4.125" style="11" customWidth="1"/>
+    <col min="8449" max="8480" width="4.08984375" style="11" customWidth="1"/>
     <col min="8481" max="8484" width="4" style="11" customWidth="1"/>
     <col min="8485" max="8704" width="9" style="11"/>
-    <col min="8705" max="8736" width="4.125" style="11" customWidth="1"/>
+    <col min="8705" max="8736" width="4.08984375" style="11" customWidth="1"/>
     <col min="8737" max="8740" width="4" style="11" customWidth="1"/>
     <col min="8741" max="8960" width="9" style="11"/>
-    <col min="8961" max="8992" width="4.125" style="11" customWidth="1"/>
+    <col min="8961" max="8992" width="4.08984375" style="11" customWidth="1"/>
     <col min="8993" max="8996" width="4" style="11" customWidth="1"/>
     <col min="8997" max="9216" width="9" style="11"/>
-    <col min="9217" max="9248" width="4.125" style="11" customWidth="1"/>
+    <col min="9217" max="9248" width="4.08984375" style="11" customWidth="1"/>
     <col min="9249" max="9252" width="4" style="11" customWidth="1"/>
     <col min="9253" max="9472" width="9" style="11"/>
-    <col min="9473" max="9504" width="4.125" style="11" customWidth="1"/>
+    <col min="9473" max="9504" width="4.08984375" style="11" customWidth="1"/>
     <col min="9505" max="9508" width="4" style="11" customWidth="1"/>
     <col min="9509" max="9728" width="9" style="11"/>
-    <col min="9729" max="9760" width="4.125" style="11" customWidth="1"/>
+    <col min="9729" max="9760" width="4.08984375" style="11" customWidth="1"/>
     <col min="9761" max="9764" width="4" style="11" customWidth="1"/>
     <col min="9765" max="9984" width="9" style="11"/>
-    <col min="9985" max="10016" width="4.125" style="11" customWidth="1"/>
+    <col min="9985" max="10016" width="4.08984375" style="11" customWidth="1"/>
     <col min="10017" max="10020" width="4" style="11" customWidth="1"/>
     <col min="10021" max="10240" width="9" style="11"/>
-    <col min="10241" max="10272" width="4.125" style="11" customWidth="1"/>
+    <col min="10241" max="10272" width="4.08984375" style="11" customWidth="1"/>
     <col min="10273" max="10276" width="4" style="11" customWidth="1"/>
     <col min="10277" max="10496" width="9" style="11"/>
-    <col min="10497" max="10528" width="4.125" style="11" customWidth="1"/>
+    <col min="10497" max="10528" width="4.08984375" style="11" customWidth="1"/>
     <col min="10529" max="10532" width="4" style="11" customWidth="1"/>
     <col min="10533" max="10752" width="9" style="11"/>
-    <col min="10753" max="10784" width="4.125" style="11" customWidth="1"/>
+    <col min="10753" max="10784" width="4.08984375" style="11" customWidth="1"/>
     <col min="10785" max="10788" width="4" style="11" customWidth="1"/>
     <col min="10789" max="11008" width="9" style="11"/>
-    <col min="11009" max="11040" width="4.125" style="11" customWidth="1"/>
+    <col min="11009" max="11040" width="4.08984375" style="11" customWidth="1"/>
     <col min="11041" max="11044" width="4" style="11" customWidth="1"/>
     <col min="11045" max="11264" width="9" style="11"/>
-    <col min="11265" max="11296" width="4.125" style="11" customWidth="1"/>
+    <col min="11265" max="11296" width="4.08984375" style="11" customWidth="1"/>
     <col min="11297" max="11300" width="4" style="11" customWidth="1"/>
     <col min="11301" max="11520" width="9" style="11"/>
-    <col min="11521" max="11552" width="4.125" style="11" customWidth="1"/>
+    <col min="11521" max="11552" width="4.08984375" style="11" customWidth="1"/>
     <col min="11553" max="11556" width="4" style="11" customWidth="1"/>
     <col min="11557" max="11776" width="9" style="11"/>
-    <col min="11777" max="11808" width="4.125" style="11" customWidth="1"/>
+    <col min="11777" max="11808" width="4.08984375" style="11" customWidth="1"/>
     <col min="11809" max="11812" width="4" style="11" customWidth="1"/>
     <col min="11813" max="12032" width="9" style="11"/>
-    <col min="12033" max="12064" width="4.125" style="11" customWidth="1"/>
+    <col min="12033" max="12064" width="4.08984375" style="11" customWidth="1"/>
     <col min="12065" max="12068" width="4" style="11" customWidth="1"/>
     <col min="12069" max="12288" width="9" style="11"/>
-    <col min="12289" max="12320" width="4.125" style="11" customWidth="1"/>
+    <col min="12289" max="12320" width="4.08984375" style="11" customWidth="1"/>
     <col min="12321" max="12324" width="4" style="11" customWidth="1"/>
     <col min="12325" max="12544" width="9" style="11"/>
-    <col min="12545" max="12576" width="4.125" style="11" customWidth="1"/>
+    <col min="12545" max="12576" width="4.08984375" style="11" customWidth="1"/>
     <col min="12577" max="12580" width="4" style="11" customWidth="1"/>
     <col min="12581" max="12800" width="9" style="11"/>
-    <col min="12801" max="12832" width="4.125" style="11" customWidth="1"/>
+    <col min="12801" max="12832" width="4.08984375" style="11" customWidth="1"/>
     <col min="12833" max="12836" width="4" style="11" customWidth="1"/>
     <col min="12837" max="13056" width="9" style="11"/>
-    <col min="13057" max="13088" width="4.125" style="11" customWidth="1"/>
+    <col min="13057" max="13088" width="4.08984375" style="11" customWidth="1"/>
     <col min="13089" max="13092" width="4" style="11" customWidth="1"/>
     <col min="13093" max="13312" width="9" style="11"/>
-    <col min="13313" max="13344" width="4.125" style="11" customWidth="1"/>
+    <col min="13313" max="13344" width="4.08984375" style="11" customWidth="1"/>
     <col min="13345" max="13348" width="4" style="11" customWidth="1"/>
     <col min="13349" max="13568" width="9" style="11"/>
-    <col min="13569" max="13600" width="4.125" style="11" customWidth="1"/>
+    <col min="13569" max="13600" width="4.08984375" style="11" customWidth="1"/>
     <col min="13601" max="13604" width="4" style="11" customWidth="1"/>
     <col min="13605" max="13824" width="9" style="11"/>
-    <col min="13825" max="13856" width="4.125" style="11" customWidth="1"/>
+    <col min="13825" max="13856" width="4.08984375" style="11" customWidth="1"/>
     <col min="13857" max="13860" width="4" style="11" customWidth="1"/>
     <col min="13861" max="14080" width="9" style="11"/>
-    <col min="14081" max="14112" width="4.125" style="11" customWidth="1"/>
+    <col min="14081" max="14112" width="4.08984375" style="11" customWidth="1"/>
     <col min="14113" max="14116" width="4" style="11" customWidth="1"/>
     <col min="14117" max="14336" width="9" style="11"/>
-    <col min="14337" max="14368" width="4.125" style="11" customWidth="1"/>
+    <col min="14337" max="14368" width="4.08984375" style="11" customWidth="1"/>
     <col min="14369" max="14372" width="4" style="11" customWidth="1"/>
     <col min="14373" max="14592" width="9" style="11"/>
-    <col min="14593" max="14624" width="4.125" style="11" customWidth="1"/>
+    <col min="14593" max="14624" width="4.08984375" style="11" customWidth="1"/>
     <col min="14625" max="14628" width="4" style="11" customWidth="1"/>
     <col min="14629" max="14848" width="9" style="11"/>
-    <col min="14849" max="14880" width="4.125" style="11" customWidth="1"/>
+    <col min="14849" max="14880" width="4.08984375" style="11" customWidth="1"/>
     <col min="14881" max="14884" width="4" style="11" customWidth="1"/>
     <col min="14885" max="15104" width="9" style="11"/>
-    <col min="15105" max="15136" width="4.125" style="11" customWidth="1"/>
+    <col min="15105" max="15136" width="4.08984375" style="11" customWidth="1"/>
     <col min="15137" max="15140" width="4" style="11" customWidth="1"/>
     <col min="15141" max="15360" width="9" style="11"/>
-    <col min="15361" max="15392" width="4.125" style="11" customWidth="1"/>
+    <col min="15361" max="15392" width="4.08984375" style="11" customWidth="1"/>
     <col min="15393" max="15396" width="4" style="11" customWidth="1"/>
     <col min="15397" max="15616" width="9" style="11"/>
-    <col min="15617" max="15648" width="4.125" style="11" customWidth="1"/>
+    <col min="15617" max="15648" width="4.08984375" style="11" customWidth="1"/>
     <col min="15649" max="15652" width="4" style="11" customWidth="1"/>
     <col min="15653" max="15872" width="9" style="11"/>
-    <col min="15873" max="15904" width="4.125" style="11" customWidth="1"/>
+    <col min="15873" max="15904" width="4.08984375" style="11" customWidth="1"/>
     <col min="15905" max="15908" width="4" style="11" customWidth="1"/>
     <col min="15909" max="16128" width="9" style="11"/>
-    <col min="16129" max="16160" width="4.125" style="11" customWidth="1"/>
+    <col min="16129" max="16160" width="4.08984375" style="11" customWidth="1"/>
     <col min="16161" max="16164" width="4" style="11" customWidth="1"/>
     <col min="16165" max="16384" width="9" style="11"/>
   </cols>
@@ -4275,21 +4928,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="149" t="s">
+      <c r="U3" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="150"/>
-      <c r="W3" s="151">
+      <c r="V3" s="142"/>
+      <c r="W3" s="159">
         <v>45191</v>
       </c>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="153"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="135"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -4384,7 +5037,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="Y6" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -4401,20 +5054,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="136"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="146"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -4432,66 +5085,66 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="143" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="145"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="155"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="133" t="s">
+      <c r="W8" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="133" t="s">
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="133"/>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="133" t="s">
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="133"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="148"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -4503,11 +5156,11 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="154" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
+      <c r="AC9" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="162"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -4537,9 +5190,9 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="15"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="159"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4569,9 +5222,9 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="15"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="159"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="165"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4603,9 +5256,9 @@
       <c r="Z12" s="46"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="48"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="162"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="167"/>
+      <c r="AE12" s="168"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4700,106 +5353,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="163"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="139"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4938,408 +5591,416 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="149" t="s">
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="149" t="s">
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="149" t="s">
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="142"/>
+      <c r="AC23" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="150"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="165">
+      <c r="B24" s="133">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="166">
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136">
         <v>45191</v>
       </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="165" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="152"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="152"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD24" s="152"/>
-      <c r="AE24" s="153"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="135"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="165">
+      <c r="B25" s="133">
         <v>1.2</v>
       </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="166">
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136">
         <v>45197</v>
       </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="165" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="152"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="152"/>
-      <c r="W25" s="152"/>
-      <c r="X25" s="152"/>
-      <c r="Y25" s="152"/>
-      <c r="Z25" s="152"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD25" s="152"/>
-      <c r="AE25" s="153"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="135"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="165">
+      <c r="B26" s="133">
         <v>1.3</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="166">
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136">
         <v>45198</v>
       </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="165" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="152"/>
-      <c r="Y26" s="152"/>
-      <c r="Z26" s="152"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="153"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="135"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="152"/>
-      <c r="S27" s="152"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
-      <c r="Y27" s="152"/>
-      <c r="Z27" s="152"/>
-      <c r="AA27" s="152"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="152"/>
-      <c r="AE27" s="153"/>
+      <c r="B27" s="133">
+        <v>1.4</v>
+      </c>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136">
+        <v>45209</v>
+      </c>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="133" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="135"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="152"/>
-      <c r="S28" s="152"/>
-      <c r="T28" s="152"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="152"/>
-      <c r="X28" s="152"/>
-      <c r="Y28" s="152"/>
-      <c r="Z28" s="152"/>
-      <c r="AA28" s="152"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="152"/>
-      <c r="AE28" s="153"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="133"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="135"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="152"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="152"/>
-      <c r="U29" s="152"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="152"/>
-      <c r="X29" s="152"/>
-      <c r="Y29" s="152"/>
-      <c r="Z29" s="152"/>
-      <c r="AA29" s="152"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="152"/>
-      <c r="AE29" s="153"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="133"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="135"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="152"/>
-      <c r="Y30" s="152"/>
-      <c r="Z30" s="152"/>
-      <c r="AA30" s="152"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="152"/>
-      <c r="AE30" s="153"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="135"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="152"/>
-      <c r="S31" s="152"/>
-      <c r="T31" s="152"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="152"/>
-      <c r="X31" s="152"/>
-      <c r="Y31" s="152"/>
-      <c r="Z31" s="152"/>
-      <c r="AA31" s="152"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="152"/>
-      <c r="AE31" s="153"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="134"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134"/>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="133"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="135"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="152"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="152"/>
-      <c r="U32" s="152"/>
-      <c r="V32" s="152"/>
-      <c r="W32" s="152"/>
-      <c r="X32" s="152"/>
-      <c r="Y32" s="152"/>
-      <c r="Z32" s="152"/>
-      <c r="AA32" s="152"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="152"/>
-      <c r="AE32" s="153"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="133"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="135"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="152"/>
-      <c r="U33" s="152"/>
-      <c r="V33" s="152"/>
-      <c r="W33" s="152"/>
-      <c r="X33" s="152"/>
-      <c r="Y33" s="152"/>
-      <c r="Z33" s="152"/>
-      <c r="AA33" s="152"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="165"/>
-      <c r="AD33" s="152"/>
-      <c r="AE33" s="153"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="133"/>
+      <c r="AD33" s="134"/>
+      <c r="AE33" s="135"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -5377,51 +6038,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -5431,6 +6047,51 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5454,42 +6115,42 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="170"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="170"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
@@ -5502,26 +6163,26 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="170"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="34">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="170"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
@@ -5529,21 +6190,25 @@
       <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="34" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="170"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="106">
+        <v>45209</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="19"/>
@@ -5576,10 +6241,10 @@
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="172"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1">
       <c r="A9" s="8">
@@ -5589,69 +6254,69 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="171" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="172"/>
+      <c r="E9" s="169" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="170"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="172"/>
+      <c r="E10" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="170"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="171" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="172"/>
+      <c r="E11" s="169" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="170"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="171" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="172"/>
+      <c r="E12" s="169" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="170"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="8">
@@ -5660,8 +6325,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="8">
@@ -5670,8 +6335,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
@@ -5680,16 +6345,16 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="172"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="172"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -5709,7 +6374,7 @@
       <c r="A19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="2"/>
       <c r="B20"/>
       <c r="F20" s="3"/>
@@ -5940,6 +6605,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -5949,11 +6619,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5975,17 +6640,17 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -5994,14 +6659,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -6023,7 +6688,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -6037,12 +6702,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6065,42 +6730,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="193" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="195"/>
+      <c r="C7" s="204" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="206"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -6121,10 +6786,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6143,14 +6808,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>94</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
@@ -6167,10 +6832,10 @@
       <c r="B11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="197"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="66" t="s">
         <v>50</v>
       </c>
@@ -6187,12 +6852,12 @@
       <c r="B12" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="196" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="197"/>
+      <c r="C12" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="176"/>
       <c r="E12" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>52</v>
@@ -6207,10 +6872,10 @@
       <c r="B13" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="197"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="66" t="s">
         <v>45</v>
       </c>
@@ -6223,8 +6888,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6233,8 +6898,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6243,8 +6908,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -6253,8 +6918,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -6263,8 +6928,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -6273,8 +6938,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -6283,8 +6948,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -6293,8 +6958,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -6303,8 +6968,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -6313,8 +6978,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -6323,8 +6988,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -6333,8 +6998,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -6343,8 +7008,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -6353,8 +7018,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -6363,8 +7028,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="183"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="199"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -6396,10 +7061,10 @@
       <c r="A31" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="83" t="s">
         <v>57</v>
       </c>
@@ -6414,51 +7079,51 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="59"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="188"/>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="180"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="190"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="180"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="190"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="74"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="183"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="199"/>
       <c r="G36" s="77"/>
       <c r="H36" s="78"/>
     </row>
@@ -6491,15 +7156,15 @@
       <c r="B39" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="186" t="s">
+      <c r="C39" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="186" t="s">
+      <c r="D39" s="200"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="208"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="87" t="s">
         <v>62</v>
       </c>
@@ -6507,51 +7172,51 @@
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="177"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="213"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="188"/>
       <c r="H40" s="90"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="91"/>
       <c r="B41" s="92"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="180"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="93"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="180"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="190"/>
       <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="180"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="190"/>
       <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="94"/>
       <c r="B44" s="95"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="199"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -6583,92 +7248,103 @@
       <c r="B47" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="186" t="s">
+      <c r="C47" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="187"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="206" t="s">
+      <c r="D47" s="200"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="207"/>
+      <c r="G47" s="184"/>
       <c r="H47" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="119">
-        <v>1</v>
-      </c>
-      <c r="B48" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="200" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="204"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="200" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="201"/>
-      <c r="H48" s="120" t="s">
-        <v>69</v>
-      </c>
+      <c r="A48" s="119"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="194"/>
+      <c r="H48" s="120"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="121"/>
       <c r="B50" s="122"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="202"/>
-      <c r="G50" s="203"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="196"/>
       <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="121"/>
       <c r="B51" s="122"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="205"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="202"/>
-      <c r="G51" s="203"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="196"/>
       <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="94"/>
       <c r="B52" s="95"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="199"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="192"/>
       <c r="H52" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F52:G52"/>
@@ -6685,38 +7361,17 @@
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6736,16 +7391,18 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -6754,14 +7411,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -6783,7 +7440,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -6797,12 +7454,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -6825,28 +7482,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -6854,7 +7511,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -6881,10 +7538,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -6903,21 +7560,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>107</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -6925,14 +7582,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="197"/>
+        <v>122</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -6943,14 +7600,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="197"/>
+        <v>123</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -6961,14 +7618,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="197"/>
+        <v>112</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -6977,8 +7634,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -6987,8 +7644,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -6997,8 +7654,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7007,8 +7664,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7017,8 +7674,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7027,8 +7684,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7037,8 +7694,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7047,8 +7704,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7057,8 +7714,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7067,8 +7724,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7077,8 +7734,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7087,8 +7744,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7097,8 +7754,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7130,10 +7787,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7148,51 +7805,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7225,49 +7882,39 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="119">
-        <v>1</v>
-      </c>
-      <c r="B38" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="201"/>
-      <c r="H38" s="120" t="s">
-        <v>168</v>
-      </c>
+      <c r="A38" s="119"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="120"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121">
         <v>2</v>
       </c>
       <c r="B39" s="125"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -7275,31 +7922,31 @@
         <v>3</v>
       </c>
       <c r="B40" s="125"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7331,97 +7978,103 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="119">
-        <v>1</v>
-      </c>
-      <c r="B46" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="201"/>
-      <c r="H46" s="120" t="s">
-        <v>168</v>
-      </c>
+      <c r="A46" s="119"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="120"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="121">
-        <v>2</v>
-      </c>
+      <c r="A47" s="121"/>
       <c r="B47" s="125"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="121">
-        <v>3</v>
-      </c>
+      <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -7435,38 +8088,18 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7481,16 +8114,18 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -7499,14 +8134,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -7528,7 +8163,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>11</v>
@@ -7542,12 +8177,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -7570,28 +8205,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -7599,7 +8234,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -7626,10 +8261,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -7648,21 +8283,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>107</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -7670,14 +8305,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="197"/>
+        <v>116</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -7688,14 +8323,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="197"/>
+        <v>117</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -7706,14 +8341,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="197"/>
+        <v>119</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -7722,8 +8357,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -7732,8 +8367,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7742,8 +8377,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7752,8 +8387,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7762,8 +8397,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7772,8 +8407,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7782,8 +8417,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7792,8 +8427,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7802,8 +8437,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7812,8 +8447,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7822,8 +8457,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7832,8 +8467,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7842,8 +8477,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7875,10 +8510,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -7893,51 +8528,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7970,81 +8605,67 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="119">
-        <v>1</v>
-      </c>
-      <c r="B38" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="201"/>
-      <c r="H38" s="120" t="s">
-        <v>168</v>
-      </c>
+      <c r="A38" s="119"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="120"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="121">
-        <v>2</v>
-      </c>
+      <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="121">
-        <v>3</v>
-      </c>
+      <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8076,15 +8697,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -8096,17 +8717,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="201"/>
+      <c r="C46" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8114,11 +8735,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="125"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -8126,47 +8747,67 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -8180,38 +8821,18 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8226,18 +8847,18 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -8246,14 +8867,14 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>4</v>
@@ -8285,12 +8906,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -8313,28 +8934,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -8342,7 +8963,7 @@
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="215" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="216"/>
@@ -8369,10 +8990,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -8391,21 +9012,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>91</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -8413,14 +9034,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="196" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="197"/>
+        <v>125</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="176"/>
       <c r="E11" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>52</v>
@@ -8433,14 +9054,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="197"/>
+        <v>126</v>
+      </c>
+      <c r="C12" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="176"/>
       <c r="E12" s="71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>52</v>
@@ -8453,14 +9074,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="197"/>
+        <v>127</v>
+      </c>
+      <c r="C13" s="175" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="176"/>
       <c r="E13" s="71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -8471,14 +9092,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="196" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="197"/>
+        <v>128</v>
+      </c>
+      <c r="C14" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="176"/>
       <c r="E14" s="71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>52</v>
@@ -8491,14 +9112,14 @@
         <v>6</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="197"/>
+        <v>129</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="176"/>
       <c r="E15" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -8509,14 +9130,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="197"/>
+        <v>130</v>
+      </c>
+      <c r="C16" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="176"/>
       <c r="E16" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -8527,14 +9148,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="196" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="197"/>
+        <v>131</v>
+      </c>
+      <c r="C17" s="175" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="176"/>
       <c r="E17" s="71" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -8543,8 +9164,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -8553,8 +9174,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -8563,8 +9184,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -8573,8 +9194,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -8583,8 +9204,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -8593,8 +9214,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -8603,8 +9224,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -8613,8 +9234,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -8623,8 +9244,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -8656,10 +9277,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -8674,51 +9295,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -8751,81 +9372,67 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="119">
-        <v>1</v>
-      </c>
-      <c r="B38" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="201"/>
-      <c r="H38" s="120" t="s">
-        <v>168</v>
-      </c>
+      <c r="A38" s="119"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="120"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="121">
-        <v>2</v>
-      </c>
+      <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="121">
-        <v>3</v>
-      </c>
+      <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -8857,94 +9464,107 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="119">
-        <v>1</v>
-      </c>
-      <c r="B46" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="201"/>
-      <c r="H46" s="120" t="s">
-        <v>168</v>
-      </c>
+      <c r="A46" s="119"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="120"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="121">
-        <v>2</v>
-      </c>
+      <c r="A47" s="121"/>
       <c r="B47" s="125"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="203"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="196"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="121">
-        <v>3</v>
-      </c>
+      <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -8957,42 +9577,15 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9011,16 +9604,16 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="12" width="10.125" customWidth="1"/>
+    <col min="3" max="12" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:13" ht="14">
       <c r="A1" s="108" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -9040,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -9051,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" s="113"/>
       <c r="K2" s="114" t="s">
@@ -9090,7 +9683,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="113"/>
@@ -9124,10 +9717,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
@@ -9146,7 +9739,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C7" s="113"/>
       <c r="D7" s="113"/>
@@ -9169,7 +9762,7 @@
       <c r="A9" s="98"/>
       <c r="F9" s="99"/>
       <c r="G9" s="221" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H9" s="222"/>
       <c r="I9" s="222"/>
@@ -9188,13 +9781,13 @@
         <v>18</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I10" s="126" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K10" s="131"/>
       <c r="L10" s="129"/>
@@ -9203,16 +9796,16 @@
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="224" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="227" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="228"/>
       <c r="E11" s="228"/>
       <c r="F11" s="229"/>
       <c r="G11" s="102" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="102"/>
       <c r="I11" s="102"/>
@@ -9225,13 +9818,13 @@
       <c r="A12" s="98"/>
       <c r="B12" s="225"/>
       <c r="C12" s="227" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D12" s="228"/>
       <c r="E12" s="228"/>
       <c r="F12" s="229"/>
       <c r="G12" s="102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
@@ -9244,13 +9837,13 @@
       <c r="A13" s="98"/>
       <c r="B13" s="225"/>
       <c r="C13" s="227" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="228"/>
       <c r="E13" s="228"/>
       <c r="F13" s="229"/>
       <c r="G13" s="102" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
@@ -9263,13 +9856,13 @@
       <c r="A14" s="98"/>
       <c r="B14" s="225"/>
       <c r="C14" s="227" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" s="228"/>
       <c r="E14" s="228"/>
       <c r="F14" s="229"/>
       <c r="G14" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -9282,14 +9875,14 @@
       <c r="A15" s="98"/>
       <c r="B15" s="225"/>
       <c r="C15" s="227" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
       <c r="F15" s="229"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="127"/>
@@ -9301,7 +9894,7 @@
       <c r="A16" s="98"/>
       <c r="B16" s="225"/>
       <c r="C16" s="227" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D16" s="228"/>
       <c r="E16" s="228"/>
@@ -9309,7 +9902,7 @@
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J16" s="127"/>
       <c r="K16" s="131"/>
@@ -9320,7 +9913,7 @@
       <c r="A17" s="98"/>
       <c r="B17" s="226"/>
       <c r="C17" s="227" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D17" s="228"/>
       <c r="E17" s="228"/>
@@ -9329,7 +9922,7 @@
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
       <c r="J17" s="127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K17" s="131"/>
       <c r="L17" s="129"/>
@@ -9384,14 +9977,14 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
@@ -9400,7 +9993,7 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="51" t="s">
@@ -9437,12 +10030,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -9465,24 +10058,24 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="195"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="206"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
@@ -9515,10 +10108,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="180" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -9537,28 +10130,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="213" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="214"/>
+        <v>91</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="183"/>
       <c r="E10" s="61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -9567,8 +10160,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -9577,8 +10170,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -9587,8 +10180,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -9597,8 +10190,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -9607,8 +10200,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -9617,8 +10210,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -9627,8 +10220,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -9637,8 +10230,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -9647,8 +10240,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -9657,8 +10250,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -9667,8 +10260,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -9677,8 +10270,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -9687,8 +10280,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -9697,8 +10290,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -9707,8 +10300,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="183"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="199"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -9740,10 +10333,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="201"/>
       <c r="D29" s="83" t="s">
         <v>57</v>
       </c>
@@ -9758,51 +10351,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="188"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="210"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="190"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="190"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -9835,15 +10428,15 @@
       <c r="B37" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="186" t="s">
+      <c r="C37" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="186" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="208"/>
+      <c r="G37" s="186"/>
       <c r="H37" s="87" t="s">
         <v>62</v>
       </c>
@@ -9855,17 +10448,17 @@
       <c r="B38" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="200" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="200" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="201"/>
+      <c r="C38" s="193" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="202"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="193" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="194"/>
       <c r="H38" s="120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -9875,17 +10468,17 @@
       <c r="B39" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="202" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="205"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="202" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="203"/>
+      <c r="C39" s="195" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="203"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="195" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="196"/>
       <c r="H39" s="123" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -9895,37 +10488,37 @@
       <c r="B40" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="202" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="205"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="202" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="203"/>
+      <c r="C40" s="195" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="203"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="196"/>
       <c r="H40" s="123" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="203"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -9957,15 +10550,15 @@
       <c r="B45" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="186" t="s">
+      <c r="C45" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="187"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="206" t="s">
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="58" t="s">
         <v>65</v>
       </c>
@@ -9977,17 +10570,17 @@
       <c r="B46" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="200" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="201"/>
+      <c r="C46" s="193" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="202"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="193" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="194"/>
       <c r="H46" s="120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9997,17 +10590,17 @@
       <c r="B47" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="202" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="205"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="202" t="s">
+      <c r="C47" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="195" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="196"/>
       <c r="H47" s="123" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -10017,53 +10610,73 @@
       <c r="B48" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="202" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="205"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="202" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="203"/>
+      <c r="C48" s="195" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="203"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="196"/>
       <c r="H48" s="123" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="203"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="196"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="199"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -10077,38 +10690,18 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10117,16 +10710,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="442e66238a47e6a383c7bc2d6eb82e4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c6b4cf86c461cb44a843f6d22037aa6" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -10284,6 +10867,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10294,16 +10887,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C8621D-7C2F-4B15-827B-F8E79AB7AB0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10321,6 +10904,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039AEEAD-673C-4E9A-8BE3-A0A2C699656C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F567371F-2EDB-477E-A7C2-91F6C71F252A}">
   <ds:schemaRefs>

--- a/03_DB設計書/データモデル設計書.xlsx
+++ b/03_DB設計書/データモデル設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCD4B3-A6E5-4EF8-8DDB-548A60287696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB30AE8-129F-4D05-AFF6-DA20C0FA24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" tabRatio="738" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="196">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -652,10 +652,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>total_calories</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>int(5)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1152,6 +1148,14 @@
     <rPh sb="2" eb="5">
       <t>ウン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R,U,D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>total_calorie</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1339,7 +1343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -2075,15 +2079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2467,9 +2462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2485,6 +2477,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2746,6 +2756,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2784,24 +2797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5356,9 +5351,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I30"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -5790,21 +5783,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="150" t="s">
+      <c r="U3" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="151"/>
-      <c r="W3" s="152">
+      <c r="V3" s="156"/>
+      <c r="W3" s="157">
         <v>45191</v>
       </c>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="154"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="159"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5916,20 +5909,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="137"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="142"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -5947,66 +5940,66 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="144" t="s">
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="146"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="134" t="s">
+      <c r="W8" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134" t="s">
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134" t="s">
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="149"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="154"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -6018,11 +6011,11 @@
       <c r="Z9" s="42"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="155" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="157"/>
+      <c r="AC9" s="160" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="162"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -6052,9 +6045,9 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="15"/>
       <c r="AB10" s="45"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="160"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -6084,9 +6077,9 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="15"/>
       <c r="AB11" s="45"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="160"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="165"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -6118,9 +6111,9 @@
       <c r="Z12" s="46"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="48"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="163"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="167"/>
+      <c r="AE12" s="168"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -6215,106 +6208,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="164"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="169"/>
+      <c r="T16" s="169"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="169"/>
+      <c r="W16" s="169"/>
+      <c r="X16" s="169"/>
+      <c r="Y16" s="169"/>
+      <c r="Z16" s="169"/>
+      <c r="AA16" s="169"/>
+      <c r="AB16" s="169"/>
+      <c r="AC16" s="169"/>
+      <c r="AD16" s="169"/>
+      <c r="AE16" s="169"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="164"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="169"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="169"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="164"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="169"/>
+      <c r="T18" s="169"/>
+      <c r="U18" s="169"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="169"/>
+      <c r="AE18" s="169"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -6453,440 +6446,440 @@
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="39"/>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="150" t="s">
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="150" t="s">
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="150" t="s">
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="170"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="151"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="156"/>
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="166">
+      <c r="B24" s="171">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="167">
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="172">
         <v>45191</v>
       </c>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="166" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="154"/>
-      <c r="AC24" s="166" t="s">
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="171" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="158"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="158"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="158"/>
+      <c r="AB24" s="159"/>
+      <c r="AC24" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="154"/>
+      <c r="AD24" s="158"/>
+      <c r="AE24" s="159"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="166">
+      <c r="B25" s="171">
         <v>1.2</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="167">
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="172">
         <v>45197</v>
       </c>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="166" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="166" t="s">
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="171" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="154"/>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="159"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="166">
+      <c r="B26" s="171">
         <v>1.3</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="167">
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="172">
         <v>45198</v>
       </c>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="166" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="166" t="s">
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="154"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="159"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="166">
+      <c r="B27" s="171">
         <v>1.4</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="167">
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="172">
         <v>45209</v>
       </c>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="166" t="s">
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="171" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="159"/>
+      <c r="AC27" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="166" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="154"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="159"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="166">
+      <c r="B28" s="171">
         <v>1.5</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="167">
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="172">
         <v>45215</v>
       </c>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="166" t="s">
-        <v>166</v>
-      </c>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="166" t="s">
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="154"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="159"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="166">
+      <c r="B29" s="171">
         <v>1.6</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="167">
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="172">
         <v>45216</v>
       </c>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="166" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="166" t="s">
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="158"/>
+      <c r="U29" s="158"/>
+      <c r="V29" s="158"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="158"/>
+      <c r="AB29" s="159"/>
+      <c r="AC29" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="154"/>
+      <c r="AD29" s="158"/>
+      <c r="AE29" s="159"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="166">
+      <c r="B30" s="171">
         <v>1.7</v>
       </c>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="167">
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="172">
         <v>45222</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="166" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="166" t="s">
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="158"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="154"/>
+      <c r="AD30" s="158"/>
+      <c r="AE30" s="159"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="154"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="171"/>
+      <c r="AD31" s="158"/>
+      <c r="AE31" s="159"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="154"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="158"/>
+      <c r="T32" s="158"/>
+      <c r="U32" s="158"/>
+      <c r="V32" s="158"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="158"/>
+      <c r="AE32" s="159"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="154"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="171"/>
+      <c r="AD33" s="158"/>
+      <c r="AE33" s="159"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -7049,10 +7042,10 @@
       <c r="K2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="221">
+      <c r="L2" s="227">
         <v>45197</v>
       </c>
-      <c r="M2" s="222"/>
+      <c r="M2" s="228"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="115" t="s">
@@ -7076,17 +7069,17 @@
       <c r="K3" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="221">
+      <c r="L3" s="227">
         <v>45216</v>
       </c>
-      <c r="M3" s="222"/>
+      <c r="M3" s="228"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="111" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="113"/>
@@ -7099,10 +7092,10 @@
       <c r="K4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="223">
+      <c r="L4" s="229">
         <v>1.6</v>
       </c>
-      <c r="M4" s="222"/>
+      <c r="M4" s="228"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="19"/>
@@ -7123,7 +7116,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
@@ -7142,7 +7135,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="113"/>
       <c r="D7" s="113"/>
@@ -7158,21 +7151,21 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="98"/>
-      <c r="L8" s="129"/>
+      <c r="L8" s="128"/>
       <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="F9" s="99"/>
-      <c r="G9" s="230" t="s">
+      <c r="G9" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="99"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="239"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
       <c r="A10" s="98"/>
@@ -7191,27 +7184,29 @@
         <v>84</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K10" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="128"/>
+        <v>156</v>
+      </c>
+      <c r="L10" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="138" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="98"/>
-      <c r="B11" s="224" t="s">
+      <c r="B11" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="227" t="s">
+      <c r="C11" s="233" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="229"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
       <c r="G11" s="102" t="s">
         <v>73</v>
       </c>
@@ -7220,129 +7215,131 @@
       <c r="J11" s="127"/>
       <c r="K11" s="102"/>
       <c r="L11" s="102"/>
-      <c r="M11" s="128"/>
+      <c r="M11" s="138"/>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="98"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="227" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="229"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="233" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
       <c r="G12" s="102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
       <c r="J12" s="127"/>
       <c r="K12" s="102"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="128"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="138"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="98"/>
-      <c r="B13" s="225"/>
-      <c r="C13" s="227" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="229"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="233" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
       <c r="G13" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="127"/>
-      <c r="K13" s="132"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="102"/>
-      <c r="M13" s="128"/>
+      <c r="M13" s="138"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="98"/>
-      <c r="B14" s="225"/>
-      <c r="C14" s="227" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="229"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="233" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="133"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="128"/>
+        <v>128</v>
+      </c>
+      <c r="K14" s="132"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="138"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="98"/>
-      <c r="B15" s="225"/>
-      <c r="C15" s="227" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="228"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="229"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="233" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="127"/>
-      <c r="K15" s="132"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="102"/>
-      <c r="M15" s="128"/>
+      <c r="M15" s="138"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="98"/>
-      <c r="B16" s="225"/>
-      <c r="C16" s="227" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="228"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="229"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16" s="127"/>
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
-      <c r="M16" s="128"/>
+      <c r="M16" s="138"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="98"/>
-      <c r="B17" s="226"/>
-      <c r="C17" s="227" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="229"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="233" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="235"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
       <c r="J17" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="126" t="s">
-        <v>165</v>
-      </c>
       <c r="L17" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="128"/>
+        <v>164</v>
+      </c>
+      <c r="M17" s="102" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="98"/>
@@ -7376,7 +7373,7 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G9:M9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7448,12 +7445,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -7476,36 +7473,36 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -7526,10 +7523,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -7550,10 +7547,10 @@
       <c r="B10" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="215"/>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
         <v>65</v>
       </c>
@@ -7568,8 +7565,8 @@
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="204"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -7578,8 +7575,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="204"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -7588,8 +7585,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -7598,8 +7595,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -7608,8 +7605,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -7618,8 +7615,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -7628,8 +7625,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -7638,8 +7635,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -7648,8 +7645,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -7658,8 +7655,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -7668,8 +7665,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -7678,8 +7675,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -7688,8 +7685,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -7698,8 +7695,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -7708,8 +7705,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -7718,8 +7715,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -7751,10 +7748,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="195"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
@@ -7769,51 +7766,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="194"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -7846,15 +7843,15 @@
       <c r="B37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="193" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="87" t="s">
         <v>61</v>
       </c>
@@ -7862,51 +7859,51 @@
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="119"/>
       <c r="B38" s="124"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="178"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="183"/>
       <c r="H38" s="120"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="181"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="181"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="186"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="206"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -7938,15 +7935,15 @@
       <c r="B45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="207" t="s">
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="208"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="58" t="s">
         <v>64</v>
       </c>
@@ -7954,51 +7951,51 @@
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="119"/>
       <c r="B46" s="124"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="178"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="183"/>
       <c r="H46" s="120"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121"/>
       <c r="B47" s="125"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="181"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="186"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="206"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
@@ -8090,8 +8087,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="170"/>
-      <c r="B1" s="171"/>
+      <c r="A1" s="175"/>
+      <c r="B1" s="176"/>
       <c r="C1" s="31" t="s">
         <v>75</v>
       </c>
@@ -8100,14 +8097,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="176"/>
       <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
@@ -8120,10 +8117,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="171"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="31" t="s">
         <v>76</v>
       </c>
@@ -8136,10 +8133,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
@@ -8152,10 +8149,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="31" t="s">
         <v>86</v>
       </c>
@@ -8198,10 +8195,10 @@
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="175"/>
+      <c r="F8" s="180"/>
     </row>
     <row r="9" spans="1:6" ht="33.75" customHeight="1">
       <c r="A9" s="8">
@@ -8216,10 +8213,10 @@
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="172" t="s">
+      <c r="E9" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="173"/>
+      <c r="F9" s="178"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="8">
@@ -8234,10 +8231,10 @@
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="172" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="173"/>
+      <c r="E10" s="177" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="178"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="8">
@@ -8252,17 +8249,17 @@
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="173"/>
+      <c r="E11" s="177" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="178"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>81</v>
@@ -8270,72 +8267,72 @@
       <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="172" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="173"/>
+      <c r="E12" s="177" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="178"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="8">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="172" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="173"/>
+      <c r="E13" s="177" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="178"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="8">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="172" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="173"/>
+      <c r="E14" s="177" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="178"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="172" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="173"/>
+      <c r="E15" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="178"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="178"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -8740,9 +8737,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -8803,12 +8798,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -8831,42 +8826,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="200" t="s">
+      <c r="C7" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="207"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -8887,10 +8882,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -8911,19 +8906,19 @@
       <c r="B10" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="215"/>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -8933,10 +8928,10 @@
       <c r="B11" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="66" t="s">
         <v>49</v>
       </c>
@@ -8953,10 +8948,10 @@
       <c r="B12" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="203" t="s">
+      <c r="C12" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="204"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="66" t="s">
         <v>89</v>
       </c>
@@ -8973,10 +8968,10 @@
       <c r="B13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="204"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="66" t="s">
         <v>45</v>
       </c>
@@ -8991,12 +8986,12 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="203" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="204"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71" t="s">
         <v>96</v>
       </c>
@@ -9009,12 +9004,12 @@
         <v>6</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="204"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71" t="s">
         <v>101</v>
       </c>
@@ -9025,8 +9020,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -9035,8 +9030,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -9045,8 +9040,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -9055,8 +9050,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -9065,8 +9060,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -9075,8 +9070,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -9085,8 +9080,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -9095,8 +9090,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -9105,8 +9100,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -9115,8 +9110,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -9125,8 +9120,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -9135,8 +9130,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
       <c r="G27" s="72"/>
@@ -9145,8 +9140,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="74"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="184"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="189"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
       <c r="G28" s="77"/>
@@ -9178,10 +9173,10 @@
       <c r="A31" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="193" t="s">
+      <c r="B31" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="195"/>
+      <c r="C31" s="200"/>
       <c r="D31" s="83" t="s">
         <v>56</v>
       </c>
@@ -9196,51 +9191,51 @@
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="59"/>
-      <c r="B32" s="196"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="178"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="183"/>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="186"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="64"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="181"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="186"/>
       <c r="G34" s="67"/>
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="64"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="74"/>
-      <c r="B36" s="185"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="184"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="189"/>
       <c r="G36" s="77"/>
       <c r="H36" s="78"/>
     </row>
@@ -9273,15 +9268,15 @@
       <c r="B39" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="193" t="s">
+      <c r="C39" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="194"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="193" t="s">
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="209"/>
+      <c r="G39" s="214"/>
       <c r="H39" s="87" t="s">
         <v>61</v>
       </c>
@@ -9289,51 +9284,51 @@
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="88"/>
       <c r="B40" s="89"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="189"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="194"/>
       <c r="H40" s="90"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="91"/>
       <c r="B41" s="92"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="192"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="197"/>
       <c r="H41" s="93"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="192"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="197"/>
       <c r="H42" s="93"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="192"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="197"/>
       <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="94"/>
       <c r="B44" s="95"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="206"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="211"/>
       <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -9365,15 +9360,15 @@
       <c r="B47" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="193" t="s">
+      <c r="C47" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="194"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="207" t="s">
+      <c r="D47" s="199"/>
+      <c r="E47" s="200"/>
+      <c r="F47" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="208"/>
+      <c r="G47" s="213"/>
       <c r="H47" s="58" t="s">
         <v>64</v>
       </c>
@@ -9383,59 +9378,59 @@
         <v>1</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="176" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="177"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="178"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="183"/>
       <c r="H48" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="121"/>
       <c r="B50" s="122"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="179"/>
-      <c r="G50" s="181"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="186"/>
       <c r="H50" s="123"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="121"/>
       <c r="B51" s="122"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="185"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="186"/>
       <c r="H51" s="123"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="94"/>
       <c r="B52" s="95"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="183"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="205"/>
-      <c r="G52" s="206"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="210"/>
+      <c r="G52" s="211"/>
       <c r="H52" s="96"/>
     </row>
   </sheetData>
@@ -9519,7 +9514,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -9581,12 +9576,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -9609,42 +9604,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="205" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="205" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -9665,10 +9660,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -9687,42 +9682,42 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="214" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="215"/>
+        <v>182</v>
+      </c>
+      <c r="C10" s="219" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="234">
+      <c r="A11" s="133">
         <v>2</v>
       </c>
-      <c r="B11" s="235" t="s">
+      <c r="B11" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="239"/>
-      <c r="E11" s="236" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="236" t="s">
+      <c r="D11" s="226"/>
+      <c r="E11" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="237"/>
-      <c r="H11" s="238" t="s">
+      <c r="G11" s="136"/>
+      <c r="H11" s="137" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9731,12 +9726,12 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="204"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="71" t="s">
         <v>96</v>
       </c>
@@ -9746,15 +9741,15 @@
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="204"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="71" t="s">
         <v>96</v>
       </c>
@@ -9765,8 +9760,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -9775,8 +9770,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -9785,8 +9780,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -9795,8 +9790,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -9805,8 +9800,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -9815,8 +9810,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -9825,8 +9820,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -9835,8 +9830,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -9845,8 +9840,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -9855,8 +9850,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -9865,8 +9860,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -9875,8 +9870,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -9885,8 +9880,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -9918,10 +9913,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="195"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
@@ -9936,51 +9931,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="216"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="183"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -10013,15 +10008,15 @@
       <c r="B37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="193" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="87" t="s">
         <v>61</v>
       </c>
@@ -10031,59 +10026,59 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="176" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="178"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="183"/>
       <c r="H38" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="181"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="181"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="186"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="206"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -10115,15 +10110,15 @@
       <c r="B45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="193" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="207" t="s">
+      <c r="C45" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="208"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="58" t="s">
         <v>64</v>
       </c>
@@ -10133,19 +10128,19 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="176" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="178"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="183"/>
       <c r="H46" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10153,49 +10148,49 @@
         <v>2</v>
       </c>
       <c r="B47" s="125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="179" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="181"/>
+        <v>154</v>
+      </c>
+      <c r="C47" s="184" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="186"/>
       <c r="H47" s="123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="206"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
@@ -10271,8 +10266,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -10334,12 +10329,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -10362,42 +10357,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -10418,10 +10413,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -10440,43 +10435,43 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="214" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="215"/>
+        <v>182</v>
+      </c>
+      <c r="C10" s="219" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="234">
+      <c r="A11" s="133">
         <v>2</v>
       </c>
-      <c r="B11" s="235" t="s">
+      <c r="B11" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="239"/>
-      <c r="E11" s="236" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="236" t="s">
+      <c r="D11" s="226"/>
+      <c r="E11" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="237"/>
-      <c r="H11" s="238" t="s">
-        <v>156</v>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -10486,10 +10481,10 @@
       <c r="B12" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="203" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="204"/>
+      <c r="C12" s="208" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="209"/>
       <c r="E12" s="71" t="s">
         <v>101</v>
       </c>
@@ -10504,10 +10499,10 @@
       <c r="B13" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="204"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="71" t="s">
         <v>101</v>
       </c>
@@ -10518,8 +10513,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -10528,8 +10523,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -10538,8 +10533,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -10548,8 +10543,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -10558,8 +10553,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -10568,8 +10563,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -10578,8 +10573,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -10588,8 +10583,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -10598,8 +10593,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -10608,8 +10603,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -10618,8 +10613,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -10628,8 +10623,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -10638,8 +10633,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -10671,10 +10666,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="195"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
@@ -10689,51 +10684,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="194"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -10766,15 +10761,15 @@
       <c r="B37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="193" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="87" t="s">
         <v>61</v>
       </c>
@@ -10784,59 +10779,59 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="176" t="s">
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="183"/>
+      <c r="H38" s="120" t="s">
         <v>143</v>
-      </c>
-      <c r="G38" s="178"/>
-      <c r="H38" s="120" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="181"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="181"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="186"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="206"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -10868,15 +10863,15 @@
       <c r="B45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="207" t="s">
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="208"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="58" t="s">
         <v>64</v>
       </c>
@@ -10886,19 +10881,19 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="176" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="178"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="183"/>
       <c r="H46" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -10906,19 +10901,19 @@
         <v>2</v>
       </c>
       <c r="B47" s="125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="179" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="184" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179" t="s">
-        <v>175</v>
-      </c>
-      <c r="G47" s="181"/>
+      <c r="G47" s="186"/>
       <c r="H47" s="123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -10926,31 +10921,31 @@
         <v>3</v>
       </c>
       <c r="B48" s="125"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="206"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
@@ -11026,9 +11021,7 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -11089,12 +11082,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -11117,42 +11110,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="205" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="55" t="s">
@@ -11173,10 +11166,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -11197,19 +11190,19 @@
       <c r="B10" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="215"/>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -11217,14 +11210,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="204"/>
+        <v>105</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="209"/>
       <c r="E11" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>51</v>
@@ -11237,14 +11230,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="204"/>
+        <v>144</v>
+      </c>
+      <c r="C12" s="208" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="209"/>
       <c r="E12" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -11255,14 +11248,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="204"/>
+        <v>145</v>
+      </c>
+      <c r="C13" s="208" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="209"/>
       <c r="E13" s="71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -11273,14 +11266,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="203" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="204"/>
+        <v>146</v>
+      </c>
+      <c r="C14" s="208" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="209"/>
       <c r="E14" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -11289,8 +11282,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -11299,8 +11292,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -11309,8 +11302,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -11319,8 +11312,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -11329,8 +11322,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -11339,8 +11332,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -11349,8 +11342,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -11359,8 +11352,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -11369,8 +11362,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -11379,8 +11372,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -11389,8 +11382,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="74"/>
       <c r="B25" s="75"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="184"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="189"/>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
       <c r="G25" s="77"/>
@@ -11422,10 +11415,10 @@
       <c r="A28" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="193" t="s">
+      <c r="B28" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="195"/>
+      <c r="C28" s="200"/>
       <c r="D28" s="83" t="s">
         <v>56</v>
       </c>
@@ -11440,51 +11433,51 @@
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="59"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="194"/>
       <c r="G29" s="62"/>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="64"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="192"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="197"/>
       <c r="G30" s="67"/>
       <c r="H30" s="68"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="74"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="184"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="77"/>
       <c r="H33" s="78"/>
     </row>
@@ -11517,15 +11510,15 @@
       <c r="B36" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="193" t="s">
+      <c r="C36" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="194"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="193" t="s">
+      <c r="D36" s="199"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="209"/>
+      <c r="G36" s="214"/>
       <c r="H36" s="87" t="s">
         <v>61</v>
       </c>
@@ -11533,51 +11526,51 @@
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="119"/>
       <c r="B37" s="124"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="178"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="183"/>
       <c r="H37" s="120"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="121"/>
       <c r="B38" s="125"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="181"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="186"/>
       <c r="H38" s="123"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="181"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="122"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="94"/>
       <c r="B41" s="95"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="206"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
       <c r="H41" s="96"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
@@ -11609,15 +11602,15 @@
       <c r="B44" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="193" t="s">
+      <c r="C44" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="194"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="207" t="s">
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="208"/>
+      <c r="G44" s="213"/>
       <c r="H44" s="58" t="s">
         <v>64</v>
       </c>
@@ -11627,59 +11620,59 @@
         <v>1</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="176" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="178"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="181" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="183"/>
       <c r="H45" s="120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="121"/>
       <c r="B46" s="125"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="179"/>
-      <c r="G46" s="181"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="123"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121"/>
       <c r="B47" s="125"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="181"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="186"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121"/>
       <c r="B48" s="122"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="94"/>
       <c r="B49" s="95"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="205"/>
-      <c r="G49" s="206"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="96"/>
     </row>
   </sheetData>
@@ -11754,9 +11747,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -11813,12 +11804,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -11841,42 +11832,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="205" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="205" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="223" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -11897,10 +11888,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -11919,21 +11910,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="214" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="215"/>
+        <v>149</v>
+      </c>
+      <c r="C10" s="219" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -11941,14 +11932,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="203" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="204"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>51</v>
@@ -11959,8 +11950,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="204"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -11969,8 +11960,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -11979,8 +11970,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -11989,8 +11980,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -11999,8 +11990,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -12009,8 +12000,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -12019,8 +12010,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -12029,8 +12020,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -12039,8 +12030,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -12049,8 +12040,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -12059,8 +12050,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -12069,8 +12060,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -12079,8 +12070,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -12089,8 +12080,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -12099,8 +12090,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -12132,10 +12123,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="195"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
@@ -12150,51 +12141,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="194"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -12227,15 +12218,15 @@
       <c r="B37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="193" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="87" t="s">
         <v>61</v>
       </c>
@@ -12243,51 +12234,51 @@
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="119"/>
       <c r="B38" s="124"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="178"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="183"/>
       <c r="H38" s="120"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="181"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="181"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="186"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="206"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -12319,15 +12310,15 @@
       <c r="B45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="207" t="s">
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="208"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="58" t="s">
         <v>64</v>
       </c>
@@ -12337,59 +12328,59 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="176" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="181" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="178"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="183"/>
       <c r="H46" s="120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121"/>
       <c r="B47" s="125"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="181"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="186"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="206"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
@@ -12465,9 +12456,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -12528,12 +12517,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -12556,42 +12545,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="205" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="205" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="223" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -12612,10 +12601,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -12636,19 +12625,19 @@
       <c r="B10" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="215"/>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -12656,21 +12645,21 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="203" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="204"/>
+        <v>149</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="209"/>
       <c r="E11" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -12678,14 +12667,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="204"/>
+        <v>106</v>
+      </c>
+      <c r="C12" s="208" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="209"/>
       <c r="E12" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>51</v>
@@ -12696,8 +12685,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -12706,8 +12695,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -12716,8 +12705,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -12726,8 +12715,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -12736,8 +12725,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -12746,8 +12735,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -12756,8 +12745,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -12766,8 +12755,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -12776,8 +12765,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -12786,8 +12775,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -12796,8 +12785,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -12806,8 +12795,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -12816,8 +12805,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -12826,8 +12815,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -12859,10 +12848,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="195"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
@@ -12877,51 +12866,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="194"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -12954,15 +12943,15 @@
       <c r="B37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="193" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="87" t="s">
         <v>61</v>
       </c>
@@ -12972,19 +12961,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="177"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="176" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="178"/>
+      <c r="G38" s="183"/>
       <c r="H38" s="120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
@@ -12992,49 +12981,49 @@
         <v>2</v>
       </c>
       <c r="B39" s="125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="179" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="181"/>
+        <v>154</v>
+      </c>
+      <c r="C39" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="186"/>
       <c r="H39" s="123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="181"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="186"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="206"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -13066,15 +13055,15 @@
       <c r="B45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="207" t="s">
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="208"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="58" t="s">
         <v>64</v>
       </c>
@@ -13084,19 +13073,19 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="176" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="178"/>
+      <c r="G46" s="183"/>
       <c r="H46" s="120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -13104,49 +13093,49 @@
         <v>2</v>
       </c>
       <c r="B47" s="125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="179" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="181"/>
+        <v>154</v>
+      </c>
+      <c r="C47" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="186"/>
       <c r="H47" s="123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="206"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
@@ -13222,9 +13211,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -13281,12 +13268,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
@@ -13309,42 +13296,42 @@
         <v>35</v>
       </c>
       <c r="B5" s="54"/>
-      <c r="C5" s="200" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="205" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="200" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="205" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="218" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="C7" s="223" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="55" t="s">
@@ -13365,10 +13352,10 @@
       <c r="B9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="213"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="57" t="s">
         <v>41</v>
       </c>
@@ -13387,21 +13374,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="215"/>
+      <c r="C10" s="219" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="220"/>
       <c r="E10" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1">
@@ -13409,14 +13396,14 @@
         <v>2</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="203" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="208" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="209"/>
+      <c r="E11" s="71" t="s">
         <v>112</v>
-      </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="71" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>51</v>
@@ -13427,8 +13414,8 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="204"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -13437,8 +13424,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -13447,8 +13434,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -13457,8 +13444,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -13467,8 +13454,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -13477,8 +13464,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -13487,8 +13474,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -13497,8 +13484,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="72"/>
@@ -13507,8 +13494,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
       <c r="G20" s="72"/>
@@ -13517,8 +13504,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="72"/>
@@ -13527,8 +13514,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
       <c r="G22" s="72"/>
@@ -13537,8 +13524,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="71"/>
       <c r="F23" s="71"/>
       <c r="G23" s="72"/>
@@ -13547,8 +13534,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="72"/>
@@ -13557,8 +13544,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="208"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="71"/>
       <c r="F25" s="71"/>
       <c r="G25" s="72"/>
@@ -13567,8 +13554,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="74"/>
       <c r="B26" s="75"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
@@ -13600,10 +13587,10 @@
       <c r="A29" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="195"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="83" t="s">
         <v>56</v>
       </c>
@@ -13618,51 +13605,51 @@
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="59"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="194"/>
       <c r="G30" s="62"/>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
       <c r="A31" s="64"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="197"/>
       <c r="G31" s="67"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="64"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="197"/>
       <c r="G32" s="67"/>
       <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="64"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="67"/>
       <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="74"/>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="189"/>
       <c r="G34" s="77"/>
       <c r="H34" s="78"/>
     </row>
@@ -13695,15 +13682,15 @@
       <c r="B37" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="193" t="s">
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="87" t="s">
         <v>61</v>
       </c>
@@ -13711,51 +13698,51 @@
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="119"/>
       <c r="B38" s="124"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="178"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="183"/>
       <c r="H38" s="120"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="125"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="181"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="125"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="181"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="121"/>
       <c r="B41" s="122"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="181"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="186"/>
       <c r="H41" s="123"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="94"/>
       <c r="B42" s="95"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="206"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
       <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
@@ -13787,15 +13774,15 @@
       <c r="B45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="194"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="207" t="s">
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="208"/>
+      <c r="G45" s="213"/>
       <c r="H45" s="58" t="s">
         <v>64</v>
       </c>
@@ -13805,59 +13792,59 @@
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="176" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="177"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="178"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="181" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="183"/>
       <c r="H46" s="120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
       <c r="A47" s="121"/>
       <c r="B47" s="125"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="181"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="186"/>
       <c r="H47" s="123"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="121"/>
       <c r="B48" s="125"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="181"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="181"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="186"/>
       <c r="H48" s="123"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="121"/>
       <c r="B49" s="122"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="181"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="186"/>
       <c r="H49" s="123"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="206"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="211"/>
       <c r="H50" s="96"/>
     </row>
   </sheetData>
@@ -13894,11 +13881,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C17:D17"/>
@@ -13907,11 +13889,11 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C5:H5"/>
@@ -13919,6 +13901,11 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
